--- a/DOM_Banner/output/dept0713/Rachna Shroff_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Rachna Shroff_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P79"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,39 +452,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ;; NSABP/NRG Oncology and Fred Hutchinson Cancer Research Center, and SWOG Statistics and Data Management Center, Seattle, WA;; University of Arizona Cancer Center, Tucson, AZ;; Mayo Clinic Arizona, Scottsdale, AZ;; Vanderbilt University. Medical Center, Nashville, TN;; VCU Massey Cancer Center, Richmond, VA;; Mayo Clinic, Rochester, MN;; Robert H. Lurie Comprehensive Cancer Center of Northwestern University, Chicago, IL;; University of Texas MD Anderson Cancer Center, Houston, TX;; Memorial Sloan Kettering Cancer Center, New York, NY;; Washington University, Saint Louis, MO;; Saint John's Hospital, Saint Paul, MN;; Dana-Farber Cancer Institute, Boston, MA;; Roswell Park Cancer Institute, Buffalo, NY;; Helen Diller Family Comprehensive Cancer Center, University of California, San Francisco, San Francisco, CA;; Yale Cancer Center, New Haven, CT;; USC Norris Comprehensive Cancer Center, Los Angeles, CA;; University of Washington, Fred Hutchinson Cancer Research Center, Seattle, WA;; Rutgers Cancer Institue of New Jersey, New Brunswick, NJ;; Henry Ford Cancer Institute, Detroit, MI;</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386743363</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>SWOG 1815: A phase III randomized trial of gemcitabine, cisplatin, and nab-paclitaxel versus gemcitabine and cisplatin in newly diagnosed, advanced biliary tract cancers.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.4_suppl.lba490</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -487,35 +492,40 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.4_suppl.lba490</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona Cancer Center, Tucson, AZ.; Icahn School of Medicine at Mount Sinai, New York, NY.; Perlmutter Cancer Center of New York University Langone Health/NYU Grossman School of Medicine, New York, NY.; University of Nebraska Medical Center, Omaha, NE.; RayzeBio, San Diego, CA.; Isotope Technology Munich (ITM) SE, München, Germany.; Freenome, San Francisco, CA.; Foundation Medicine, Inc, Cambridge, MA.; Genentech, a Member of the Roche Group, South San Francisco, CA.; Foundation Medicine, Inc, Cambridge, MA.; Yale School of Medicine, New Haven, CT.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4308186043</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Where Are All the Women in Industry Advisory Boards?</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-03-20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.21.02219</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36331246</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.21.02219</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>NYU School of Medicine Department of Medicine, NYU Langone Health Perlmutter Cancer Center, , New York, NY, USA; Mass General Cancer Center, Harvard Medical School Department of Medicine, , Boston, MA, USA; Mass General Cancer Center, Harvard Medical School Department of Medicine, , Boston, MA, USA; Mass General Cancer Center, Harvard Medical School Department of Medicine, , Boston, MA, USA; University of California San Francisco, Helen Diller Family Comprehensive Cancer Center , San Francisco, CA, USA; University of California San Francisco, Helen Diller Family Comprehensive Cancer Center , San Francisco, CA, USA; The University of Texas MD Anderson Cancer Center Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, , Houston, TX, USA; The University of Texas MD Anderson Cancer Center Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, , Houston, TX, USA; Duke University School of Medicine , Durham, NC, USA; University of Virginia Emily Couric Clinical Cancer Center Department of Medicine, , Charlottesville, VA, USA; Dana-Farber Cancer Institute Department of Medical Oncology, , Boston, MA, USA; Mass General Cancer Center, Harvard Medical School Department of Medicine, , Boston, MA, USA; Mayo Clinic Division of Hematology/Oncology, , Scottsdale, AZ, USA; St. Luke’s Health System Department of Medical Oncology, , Kansas City, MO, USA; Beth Israel Deaconess Medical Center Department of Medicine, , Boston, MA, USA; Jiahui Health, Jiahui International Cancer Center , Shanghai, China; Massachusetts General Hospital/Harvard Medical School Center for Integrated Diagnostics, Department of Pathology, , Boston, MA, USA; Massachusetts General Hospital/Harvard Medical School Center for Integrated Diagnostics, Department of Pathology, , Boston, MA, USA; Yale University , New Haven, CT, USA; HCA Healthcare Department of Medicine, , Tampa, FL, USA; Mayo Clinic Division of Hematology/Oncology, , Scottsdale, AZ, USA; Cholangiocarcinoma Foundation , Herriman, UT, USA; Mass General Cancer Center, Harvard Medical School Department of Medicine, , Boston, MA, USA; Vanderbilt-Ingram Cancer Center Department of Medicine, , Nashville, TN, USA; Division of Hematology/Oncology, Mayo Clinic , Jacksonville, FL, USA; Mayo Clinic Division of Hematology/Oncology, , Scottsdale, AZ, USA; University of Arizona Cancer Center, University of Arizona , Tucson, AZ, USA; University of California San Francisco, Helen Diller Family Comprehensive Cancer Center , San Francisco, CA, USA; The University of Texas MD Anderson Cancer Center Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, , Houston, TX, USA; Mass General Cancer Center, Harvard Medical School Department of Medicine, , Boston, MA, USA</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4364351845</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Molecular profiling and treatment pattern differences between intrahepatic and extrahepatic cholangiocarcinoma</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-04-11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>JNCI: Journal of the National Cancer Institute</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/jnci/djad046</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37040087</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/jnci/djad046</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,42 +708,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Bach Ardalan, Aaron Ciner, Yasmine Baca, Sourat Darabi, Anup Kasi, Emil Lou, Jose Ignacio Azqueta, Joanne Xiu, Chadi Nabhan, Anthony F. Shields, Andrew J. Aguirre, Harshabad Singh, Rachna T. Shroff, Michael J. Pishvaian, Sanjay Goel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379095614</t>
+          <t>Sylvester Comprehensive Cancer Center, Miami, FL; University of Maryland, Baltimore, MD; Caris Life Sciences, Phoenix, AZ; Hoag Memor Hosp, Newport Beach, CA; University of Kansas Cancer Center, Westwood, KS; University of Minnesota, Minneapolis, MN; University of Miami Sylvester Cancer Center, Miami, FL; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Barbara Ann Karmanos Cancer Institute, Detroit, MI; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Brookline, MA; University of Arizona Cancer Center, Tucson, AZ; Johns Hopkins University School of Medicine, Washington, DC; Rutgers Cancer Institute of New Jersey, New Brunswick, NJ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4379282617</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>Not all treated &lt;i&gt;KRAS-&lt;/i&gt;mutant pancreatic adenocarcinomas are equal: &lt;i&gt;KRAS &lt;/i&gt;G12D and survival outcome.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Clinical Cancer Research</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.ccr-22-3724</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4020</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -733,35 +753,40 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37266563</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.ccr-22-3724</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4020</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,42 +795,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bach Ardalan, Aaron Ciner, Yasmine Baca, Sourat Darabi, Anup Kasi, Emil Lou, Jose Ignacio Azqueta, Joanne Xiu, Chadi Nabhan, Anthony F. Shields, Andrew J. Aguirre, Harshabad Singh, Rachna T. Shroff, Michael J. Pishvaian, Sanjay Goel</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379282617</t>
+          <t>1Department of Internal Medicine, Division of Oncology, Huntsman Cancer Institute, University of Utah School of Medicine, Salt Lake City, Utah.; 2Caris Life Sciences, Phoenix, Arizona.; 3Department of Biology at Brigham Young University, Salt Lake City, Utah.; 3Department of Biology at Brigham Young University, Salt Lake City, Utah.; 4Department of Pathology, Huntsman Cancer Institute, University of Utah School of Medicine, Salt Lake City, Utah.; 1Department of Internal Medicine, Division of Oncology, Huntsman Cancer Institute, University of Utah School of Medicine, Salt Lake City, Utah.; 1Department of Internal Medicine, Division of Oncology, Huntsman Cancer Institute, University of Utah School of Medicine, Salt Lake City, Utah.; 5Department of Surgery, Huntsman Cancer Institute, University of Utah School of Medicine, Salt Lake City, Utah.; 2Caris Life Sciences, Phoenix, Arizona.; 2Caris Life Sciences, Phoenix, Arizona.; 6Masonic Cancer Center, University of Minnesota, Minneapolis, Minnesota.; 7Division of Hematology and Oncology, Department of Medicine, University of Arizona Cancer Center, Tucson, Arizona.; 8Department of Medicine, Sylvester Comprehensive Cancer Center, University of Miami Miller School of Medicine, Miami, Florida.; 1Department of Internal Medicine, Division of Oncology, Huntsman Cancer Institute, University of Utah School of Medicine, Salt Lake City, Utah.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Not all treated &lt;i&gt;KRAS-&lt;/i&gt;mutant pancreatic adenocarcinomas are equal: &lt;i&gt;KRAS &lt;/i&gt;G12D and survival outcome.</t>
+          <t>https://openalex.org/W4379095614</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Clinical Cancer Research</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4020</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.ccr-22-3724</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -815,35 +840,40 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4020</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37266563</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.ccr-22-3724</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Rebecca A. Snyder, Barbara Burtness, May Cho, Jaydira Del Rivero, Deborah Doroshow, Kathryn Hitchcock, Aparna Kalyan, Christina Kim, Jelena Lukovic, Aparna R. Parikh, Nina N. Sanford, Bhuminder Singh, Chan Shen, Rachna T. Shroff, Namrata Vijayvergia, Karyn A. Goodman, Pamela L. Kunz</t>
+          <t>Aaron Ciner, Bach Ardalan, Yasmine Baca, Sourat Darabi, Anup Kasi, Emil Lou, Jose Ignacio Azqueta, Joanne Xiu, Chadi Nabhan, Anthony F. Shields, Andrew J. Aguirre, Harshabad Singh, Rachna T. Shroff, Michael J. Pishvaian, Sanjay Goel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382048627</t>
+          <t>University of Maryland, Baltimore, MD; Sylvester Comprehensive Cancer Center, Miami, FL; Caris Life Sciences, Phoenix, AZ; Hoag Memor Hosp, Newport Beach, CA; University of Kansas Cancer Center, Westwood, KS; University of Minnesota, Minneapolis, MN; University of Miami Sylvester Cancer Center, Miami, FL; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Barbara Ann Karmanos Cancer Institute, Detroit, MI; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Brookline, MA; University of Arizona Cancer Center, Tucson, AZ; Johns Hopkins University School of Medicine, Washington, DC; Rutgers Cancer Institute of New Jersey, New Brunswick, NJ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>The room where it happens: addressing diversity, equity, and inclusion in National Clinical Trials Network clinical trial leadership</t>
+          <t>https://openalex.org/W4379282362</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-06-26</t>
+          <t>&lt;i&gt;KRAS &lt;/i&gt;G12C-mutated pancreatic cancer: Clinical outcomes based on chemotherapeutic regimen.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JNCI: Journal of the National Cancer Institute</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oxford University Press</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/jnci/djad121</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4150</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37364007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/jnci/djad121</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4150</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,42 +969,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Renuka Iyer, Michael Petroziello, Nainesh Parikh, Richard D. Kim, Thatcher Heumann, Daniel W. Brown, Kevin Kim, Yixing Jiang, Suvranu Ganguli, Eric I Marks, Beau Toskich, Umair Majeed, Shamar Young, Rachna T. Shroff, Moh’d Khushman, Andrew J. Gunn, Filip Banovac, Aiwu Ruth He</t>
+          <t>Rebecca A. Snyder, Barbara Burtness, May Cho, Jaydira Del Rivero, Deborah Doroshow, Kathryn Hitchcock, Aparna Kalyan, Christina Kim, Jelena Lukovic, Aparna R. Parikh, Nina N. Sanford, Bhuminder Singh, Chan Shen, Rachna T. Shroff, Namrata Vijayvergia, Karyn A. Goodman, Pamela L. Kunz</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318904017</t>
+          <t>The University of Texas MD Anderson Cancer Center Departments of Surgical Oncology and Health Services Research, , Houston, Texas, USA; Department of Internal Medicine, Section of Medical Oncology, and Yale Cancer Center, Yale School of Medicine , New Haven, CT, USA; University of California Department of Medicine, Division of Hematology/Oncology, , Irvine, Irvine, CA, USA; National Institutes of Health Developmental Therapeutics Branch, National Cancer Institute, , Bethesda, MD, USA; Icahn School of Medicine at Mount Sinai Department of Medicine, Division of Hematology and Oncology, , New York, NY, USA; University of Florida Department of Radiation Oncology, , Gainesville, FL, USA; Northwestern University Feinberg School of Medicine Department of Medicine, , Chicago, IL, USA; University of Manitoba Department of Internal Medicine, Section of Medical Oncology and Hematology, Rady Faculty of Health Sciences, , Winnipeg, MB, Canada; Radiation Medicine Program, Princess Margaret Cancer Centre, University Health Network and Department of Radiation Oncology, University of Toronto , ON, Canada; Harvard Medical School Massachusetts General Cancer Center, Division of Hematology/Oncology, Massachusetts General Hospital, , Boston, MA, USA; The University of Texas Southwestern Medical Center Department of Radiation Oncology, , Dallas, TX, USA; Vanderbilt University Medical Center Department of Medicine, Division of Gastroenterology, Hepatology, and Nutrition, , Nashville, TN, USA; Penn State College of Medicine Departments of Surgery and Public Health Sciences, , Hershey, PA, USA; University of Arizona Cancer Center Department of Medicine, Division of Hematology/Oncology, , Tucson, AZ, USA; Fox Chase Cancer Center Department of Hematology/Oncology, , Philadelphia, PA, USA; Icahn School of Medicine at Mount Sinai Department of Radiation Oncology, , New York, NY, USA; Department of Internal Medicine, Section of Medical Oncology, and Yale Cancer Center, Yale School of Medicine , New Haven, CT, USA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A phase II study of atezolizumab (ATEZO) and bevacizumab (BEV) in combination with Y90 TARE in patients (pts) with hepatocellular carcinoma (HCC): Y90+/- BEAT.</t>
+          <t>https://openalex.org/W4382048627</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>The room where it happens: addressing diversity, equity, and inclusion in National Clinical Trials Network clinical trial leadership</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-06-26</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>JNCI: Journal of the National Cancer Institute</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps629</t>
+          <t>Oxford University Press</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1093/jnci/djad121</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -979,35 +1014,40 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps629</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37364007</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/jnci/djad121</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1016,42 +1056,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aaron Ciner, Bach Ardalan, Yasmine Baca, Sourat Darabi, Anup Kasi, Emil Lou, Jose Ignacio Azqueta, Joanne Xiu, Chadi Nabhan, Anthony F. Shields, Andrew J. Aguirre, Harshabad Singh, Rachna T. Shroff, Michael J. Pishvaian, Sanjay Goel</t>
+          <t>Renuka Iyer, Michael Petroziello, Nainesh Parikh, Richard D. Kim, Thatcher Heumann, Daniel W. Brown, Kevin Kim, Yixing Jiang, Suvranu Ganguli, Eric I Marks, Beau Toskich, Umair Majeed, Shamar Young, Rachna T. Shroff, Moh’d Khushman, Andrew J. Gunn, Filip Banovac, Aiwu Ruth He</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379282362</t>
+          <t>Roswell Park Cancer Institute, Buffalo, NY;; Roswell park Comprehensive Cancer Center, Buffalo, NY;; H. Lee Moffitt Cancer Center and Research Institute, Tampa, FL;; H. Lee Moffitt Cancer Center and Research Institute, Tampa, FL;; Vanderbilt University, Nashville, TN;; Vanderbilt University, Nashville, TN;; University of Maryland, Baltimore, MD;; University of Maryland, Baltimore, MD;; Boston Medical Center, Boston University School of Medicine, Boston, MA;; Boston Medical Center, Boston University School of Medicine, Boston, MA;; Mayo Clinic Division of Vascular/Interventional Radiology, Jacksonville, FL;; Mayo Clinic Florida, Jacksonville, FL;; University of Minnesota, Minneapolis, MN;; University of Arizona Cancer Center, Tucson, AZ;; University of Alabama School of Medicine, Birmingham, AL;; The University of Alabama at Birmingham, Birmingham, AL;; Georgetown University Medical Center, Washington, DC;; Georgetown University Medical Center, Washington, DC;</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;i&gt;KRAS &lt;/i&gt;G12C-mutated pancreatic cancer: Clinical outcomes based on chemotherapeutic regimen.</t>
+          <t>https://openalex.org/W4318904017</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>A phase II study of atezolizumab (ATEZO) and bevacizumab (BEV) in combination with Y90 TARE in patients (pts) with hepatocellular carcinoma (HCC): Y90+/- BEAT.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>2023-02-01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4150</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps629</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1061,35 +1101,40 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4150</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps629</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,39 +1148,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>University of Cincinnati, Cincinnati, OH;; University of Cincinnati Cancer Center, Cincinnati, OH;; University of Cincinnati, Cincinnati, OH;; University Of Cincinnati, Cincinnati, OH;; University of Cincinnati Medical Center, Cincinnati, OH;; University of Cincinnati Cancer Center, Cincinnati, OH;; University Of Cincinnati, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Cincinnati Medical Center, Cincinnati, OH;</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317862879</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>An adaptive approach to neoadjuvant therapy to maximize resection rates for pancreatic adenocarcinoma: A phase II trial.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-02-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Journal of Clinical Oncology</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps771</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1143,35 +1188,40 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps771</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Division of Gastroenterology and Hepatology, University of California Davis Health, Sacramento, California, USA; Hôpital Saint-Antoine, Paris, France; Karolinska Institutet, Karolinska University Hospital, Stockholm, Sweden; Department of Pediatrics, University of Utah, Salt Lake City, Utah, USA; Division of Gastroenterology, University of Colorado, Aurora, Colorado, USA; Mayo Clinic College of Medicine and Science, Rochester, Minnesota, USA; New Jersey Medical School, Rutgers University, Newark, New Jersey, USA; Vagelos College of Physician and Surgeons, Columbia University, New York, New York, USA; Department of Surgery, University of Toronto, Toronto, Ontario, Canada; Division of Hematology and Oncology Tucson, University of Arizona, Arizona, USA; David Geffen School of Medicine at UCLA, Los Angeles, California, USA; Yale School of Medicine, New Haven, Connecticut, USA</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318025507</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Reply</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-01-26</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Hepatology</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/hep.0000000000000305</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36695291</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/hep.0000000000000305</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1267,75 +1322,80 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Univeristy of Colorado, Aurora, Colorado, USA; University of Toronto, Toronto, Ontario, Canada; Yale School of Medicine, New Haven, Connecticut USA; Saint Antoine Hospital Paris, France; Karolinska Institute, Karolinska University Hospital Stockholm, Sweden; University of California Davis Health, Sacramento California, USA; University of Utah, Salt Lake City, Utah, USA; Mayo Clinic College of Medicine and Science Rochester, Minnesota, USA; Rutgers University—New Jersey Medical School Newark, New Jersey, USA; Vagelos College of Physician and Surgeons—Columbia University, New York, New York, USA; University of Arizona, Tuscon, Arizona, USA; David Geffen School of Medicine at UCLA, Los Angeles, California, USA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4318945467</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Reply: Living donor liver transplantation for people with PSC</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Hepatology</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/hep.0000000000000210</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="I12" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36732294</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>https://doi.org/10.1097/hep.0000000000000210</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1344,80 +1404,85 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ifeanyichukwu Ogobuiro, Yasmine Baca, Jennifer R. Ribeiro, Phillip Walker, Gregory C. Wilson, Pat Gulhati, John L. Marshall, Rachna T. Shroff, David Speltzer, Matthew James Oberley, Daniel E. Abbott, Hong Joo Kim, David A. Kooby, Shishir K. Maithel, Syed A. Ahmad, Nipun B. Merchant, Joanne Xiu, Peter J. Hosein, Jashodeep Datta</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361288397</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Multi-omic characterization reveals a distinct molecular landscape in young-onset pancreatic cancer</t>
+          <t>https://openalex.org/W4361887863</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>Table S7 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.03.28.23287894</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22473179</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37034762</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.03.28.23287894</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473179</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1426,29 +1491,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361887145</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Supplementary Tables and Figures from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4361891645</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1456,50 +1521,55 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470219</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487547</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22470219</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487547</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1508,29 +1578,29 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361887178</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Supplementary Movie (high delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4361891655</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1538,50 +1608,55 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470225</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487556</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22470225</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487556</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1590,29 +1665,29 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361887863</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Table S7 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4361891667</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1620,50 +1695,55 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473179</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487559</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473179</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487559</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1677,24 +1757,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891603</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361891689</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1702,50 +1782,55 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487568</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487550</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487568</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487550</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1759,24 +1844,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891645</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361891776</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1784,50 +1869,55 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487547</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487553</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487547</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487553</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1841,24 +1931,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891655</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361891798</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1866,50 +1956,55 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487556</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487565</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487556</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487565</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1918,29 +2013,29 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891667</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361933456</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Supplementary Movie (low delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -1948,50 +2043,55 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487559</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22470222.v1</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487559</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22470222.v1</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2000,29 +2100,29 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891689</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361933616</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Supplementary Methods from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2030,50 +2130,55 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487550</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22470228.v1</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487550</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22470228.v1</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2082,29 +2187,29 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891718</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361933905</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Supplementary Movie (high delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2112,50 +2217,55 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487562</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22470225.v1</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487562</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22470225.v1</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2164,29 +2274,29 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891776</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361935689</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Table S4 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2194,50 +2304,55 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487553</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22473188.v1</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487553</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473188.v1</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2251,24 +2366,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891798</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>https://openalex.org/W4361940878</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2276,50 +2391,55 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487565</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487565.v1</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L24" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487565</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487565.v1</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2328,29 +2448,29 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361933456</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Supplementary Movie (low delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4361940890</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2358,50 +2478,55 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470222.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487556.v1</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22470222.v1</t>
-        </is>
-      </c>
       <c r="P25" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487556.v1</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2410,29 +2535,29 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361933616</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Supplementary Methods from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4361941026</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2440,50 +2565,55 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470228.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487550.v1</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22470228.v1</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487550.v1</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2492,29 +2622,29 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361933633</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Supplementary Tables and Figures from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4361941049</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2522,50 +2652,55 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470219.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487547.v1</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22470219.v1</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487547.v1</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2574,29 +2709,29 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361933905</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Supplementary Movie (high delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4361941326</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2604,50 +2739,55 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470225.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487568.v1</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22470225.v1</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487568.v1</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2656,29 +2796,29 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935689</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Table S4 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4361941437</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2686,50 +2826,55 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473188.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487553.v1</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L29" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473188.v1</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487553.v1</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2738,29 +2883,29 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935696</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Table S7 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4361941836</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2768,50 +2913,55 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473179.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487562.v1</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L30" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473179.v1</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487562.v1</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2820,29 +2970,29 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935712</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Table S1 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4361942018</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2850,50 +3000,55 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473197.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487559.v1</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473197.v1</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487559.v1</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2902,29 +3057,29 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935961</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Table S6 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4361946212</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>Data from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -2932,50 +3087,55 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473182.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6527469</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473182.v1</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6527469</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -2989,24 +3149,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935966</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Supplemental Table Legend from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4361953048</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>Data from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3014,50 +3174,55 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473200.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6528437.v1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473200.v1</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6528437.v1</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3066,29 +3231,29 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361940878</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361953126</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>Data from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3096,50 +3261,55 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487565.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6527469.v1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487565.v1</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6527469.v1</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3153,24 +3323,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361940890</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361959007</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>Data from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3178,50 +3348,55 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487556.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6532539</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487556.v1</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6532539</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3230,29 +3405,29 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941026</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361959535</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>Data from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3260,50 +3435,55 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487550.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6528437</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487550.v1</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6528437</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3312,29 +3492,29 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941049</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361962495</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Table S3 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3342,50 +3522,55 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487547.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22473191.v1</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487547.v1</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473191.v1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3394,29 +3579,29 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941326</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361962706</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>Table S5 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3424,50 +3609,55 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487568.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22473185.v1</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487568.v1</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473185.v1</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3476,29 +3666,29 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941437</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4361963176</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>Table S2 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3506,50 +3696,55 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487553.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22473194.v1</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L39" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487553.v1</t>
-        </is>
-      </c>
       <c r="P39" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473194.v1</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3558,29 +3753,29 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941836</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4362170416</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>Supplementary Movie (low delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3588,50 +3783,55 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487562.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22470222</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487562.v1</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22470222</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3640,29 +3840,29 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361942018</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4362407211</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>Table S4 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3670,50 +3870,55 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487559.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.22473188</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22487559.v1</t>
-        </is>
-      </c>
       <c r="P41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473188</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3722,29 +3927,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361946212</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Data from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4362407440</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>Table S6 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3752,50 +3957,55 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6527469</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22473182</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L42" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6527469</t>
-        </is>
-      </c>
       <c r="P42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473182</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3809,24 +4019,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361953048</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Data from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4362407694</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>Table S1 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>2023-03-31</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>N/A</t>
@@ -3834,50 +4044,55 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528437.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22473197</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528437.v1</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473197</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3886,80 +4101,85 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Jordi Rodón, Lipika Goyal, T. Macarulla Mercadé, Masafumi Ikeda, Shunsuke Kondo, Do‐Youn Oh, Li‐Yuan Bai, Makoto Ueno, Antoîne Italiano, Kyriakos P. Papadopoulos, David R. Spigel, Sani H. Kizilbash, Rasha Cosman, Joon Oh Park, Li-Tzong Chen, Tomoya Yokota, Anita Ahmed Turk, Chih‐Yi Liao, Rachna T. Shroff, Anthony B. El-Khoueiry, Taroh Satoh, Antoine Hollebecque, Mitesh J. Borad, Nilofer S. Azad, Kurt A. Jaeckle, Herbert H. F. Loong, Jorge Adeva, Wei Peng Yong, Junjie Zhao, Hui Liu, Anna M. Szpurka, Ivelina Gueorguieva, Kamnesh R. Pradhan, Xiping Xu, James J. Harding</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361953126</t>
+          <t>1MD Anderson Cancer Center, Houston, TX;; 2Massachusetts General Hospital Cancer Center, Boston, MA;; 3Vall d'Hebron University Hospital and Vall d'Hebron Institute of Oncology (VHIO), Barcelona, Spain;; 4National Cancer Center Hospital East, Kashiwa, Japan;; 5National Cancer Center Hospital, Tokyo, Japan;; 6Department of Internal Medicine, Seoul National University College of Medicine, Seoul, Republic of Korea;; 7China Medical University Hospital, Taichung, Taiwan;; 8Department of Gastroenterology, Kanagawa Cancer Center, Kanagawa, Japan;; 9Department of Medical Oncology, Institut Bergonié, Bordeaux, France;; 10START San Antonio, San Antonio, TX;; 11Sarah Cannon Research Institute/Tennessee Oncology, Nashville, TN;; 12Department of Oncology, Mayo Clinic, Rochester, MN;; 13The Kinghorn Cancer Centre, St Vincent's Hospital, Sydney, The University of New South Wales, Sydney, Australia;; 14Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea;; 15National Cheng Kung University Hospital, National Cheng Kung University, Tainan, Taiwan;; 16Division of Gastrointestinal Oncology, Shizuoka Cancer Center, Sunto-gun, Japan;; 17Indiana University School of Medicine, Indianapolis, IN;; 18The University of Chicago Medical Center, Chicago, IL;; 19University of Arizona Cancer Center, Tucson, AZ;; 20University of Southern California Norris Comprehensive Cancer Center, Los Angeles, CA;; 21Department of Medical Oncology, Kinki University School of Medicine, Osaka, Japan;; 22Department of Medical Oncology, Gustave Roussy, Villejuif, France;; 23Department of Oncology, Mayo Clinic Arizona, Scottsdale, AZ;; 24Johns Hopkins Sidney Kimmel Comprehensive Cancer Center, Baltimore, MD;; 25Department of Neurology, Mayo Clinic Florida, Jacksonville, FL;; 26Department of Clinical Oncology, The Chinese University of Hong Kong, Shatin, Hong Kong;; 27Department of Medical Oncology, Hospital Universitario 12 de Octubre, Madrid, Spain;; 28National University Cancer Institute, Singapore, Singapore;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 30Eli Lilly, England, United Kingdom;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 31David H. Koch Center for Cancer Care at Memorial Sloan Kettering Cancer Center, New York, NY.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Data from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4365513192</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Abstract CT098: A first-in-human phase 1 study of LY3410738, a covalent inhibitor of mutant IDH, in advanced IDH-mutant cholangiocarcinoma and other solid tumors</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancer Research</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6527469.v1</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1538-7445.am2023-ct098</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6527469.v1</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1538-7445.am2023-ct098</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -3968,80 +4188,85 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Andrew H. Ko, Mark M. Zalupski, Raed Moh’d Taiseer Al-Rajabi, Khalid Matin, Deirdre Jill Cohen, Smitha Krishnamurthi, Brent L. Kreider, Jessica A. Box, Caroline M. Emery, Martin G. Teresk, Mary Varterasian, Lee Martin, Anna Groover, Deb Knoerzer, Rachna T. Shroff</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361954118</t>
+          <t>University of California San Francisco, San Francisco, CA; University of Michigan, Ann Arbor, MI; University of Kansas Medical Center, Kansas, KS; Massey Cancer Center, Virginia Commonwealth University, Richmond, VA; Division of Hematology and Medical Oncology, Icahn School of Medicine at Mount Sinai, New York, NY; Cleveland Clinic, Cleveland, OH; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; Independent Consultant, Ann Arbor Drug Safety, LLC, Ann Arbor, MI; Biomed Valley Discoveries, Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; University of Arizona Cancer Center, Tucson, AZ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Data from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4379336702</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>A phase 2 basket trial of ulixertinib (BVD-523) in combination with hydroxychloroquine in patients with advanced gastrointestinal malignancies harboring MAPK pathway mutations (BVD-523-HCQ).</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6532539.v1</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4174</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6532539.v1</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4174</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4050,27 +4275,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361959007</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Data from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>https://openalex.org/W4382243853</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4080,50 +4305,55 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6532539</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v1</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L46" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6532539</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v1</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4132,27 +4362,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361959535</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Data from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4382244076</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4162,50 +4392,55 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528437</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.23586793</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528437</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.23586793</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4214,27 +4449,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361962495</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Table S3 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4382244083</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4244,50 +4479,55 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473191.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473191.v1</t>
-        </is>
-      </c>
       <c r="P48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4296,27 +4536,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361962706</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Table S5 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4382245968</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4326,50 +4566,55 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473185.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.23586793.v1</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L49" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N49" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473185.v1</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.23586793.v1</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4378,80 +4623,85 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Jennifer J. Knox, I. Bazin, Do Youn Oh, O. Zubkov, V. Breder, Li‐Yuan Bai, Alan Christie, Mairéad G. McNamara, Lipika Goyal, David Cosgrove, Christoph Springfeld, Katrin Marie Sjoquist, J. Park, Helena Verdaguer, Chiara Braconi, Paul Ross, Aimery de Gramont, Rachna T. Shroff, John Zalcberg, Daniel H. Palmer, Juan W. Valle</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361963176</t>
+          <t>Princess Margaret Cancer Centre, Toronto, Canada; NN Blokhin Russian Cancer Research Center, Moscow, Russia; Seoul National University College of Medicine, Seoul, South Korea; Kyiv City Clinical Oncology Center, Kyiv, Ukraine; NN Blokhin Russian Cancer Research Center, Chemotherapy Unit, Moscow, Russia; China Medical University Hospital, Taichung, Taiwan; Edinburgh Cancer Centre, Western General Hospital, Edinburgh, United Kingdom; The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom; Stanford Cancer Center, Palo Alto, United States; Vancouver Cancer Center, Compass Oncology, Vancouver, United States; Universitaetsklinikum Heidelberg, Heidelberg, Germany; Cancer Care Centre, St George Hospital, Kogarah &amp; NHMRC Clinical Trials Centre, Sydney, Australia; Division of Hematology-Oncology, Department of Medicine, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, South Korea; Hospital General de Granollers, Barcelona, Spain; University of Glasgow, Glasgow, United Kingdom; Guy's Hospital, London, England, United Kingdom; Franco-British Institute, Levallois-Perret, France; University of Arizona Cancer Center, Tucson, United States; Alfred Health and School of Public Health Monash University, Melbourne, Australia; Cancer Research United Kingdom Liverpool Experimental Cancer Medicine Centre and Clatterbridge Cancer Centre, Liverpool, United Kingdom; The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Table S2 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4382807504</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>O-2 Phase III study of NUC-1031 + cisplatin vs gemcitabine + cisplatin for first-line treatment of patients with advanced biliary tract cancer (NuTide:121)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473194.v1</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.017</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
+          <t>publishedVersion</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L50" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N50" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473194.v1</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.017</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4460,27 +4710,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362166390</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Supplementary Methods from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4384071504</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4490,50 +4740,55 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470228</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.23668923</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22470228</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.23668923</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4542,27 +4797,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362170416</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Supplementary Movie (low delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>https://openalex.org/W4384071588</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4572,50 +4827,55 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470222</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v2</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N52" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22470222</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v2</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4624,27 +4884,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407208</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Table S3 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4384071663</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4654,50 +4914,55 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473191</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.23668923.v1</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473191</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.23668923.v1</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4706,80 +4971,85 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Rikita Hatia, Madhulika Eluri, Ernest T. Hawk, Akram Shalaby, Emine Karataş, A. M. Shalaby, Ahmed Abdelhakeem, Reham Abdel-Wahab, Ping Chang, Asif Rashid, Prasun K. Jalal, Christopher I. Amos, Younghun Han, Tannaz Armaghany, Rachna T. Shroff, Donghui Li, Milind Javle, Manal M. Hassan</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407211</t>
+          <t>1Department of Epidemiology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 3Division of Cancer Prevention &amp; Population Sciences, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 4Department of Pathology, Case Western Reserve University, Cleveland, Ohio.; 5Department of Internal Medicine, Jacobi Medical Center, Albert Einstein College of Medicine, Bronx, New York.; 6Department of Radiation Oncology, Robert Wood Johnson University Hospital, New Brunswick, New Jersey.; 7Department of Internal Medicine, Baptist Hospital of Southeast Texas, Beaumont, Texas.; 8Department of Melanoma Medicine Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 9Clinical Oncology Department, Faculty of Medicine, Assiut University, Assiut, Egypt.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 10Department of Pathology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 11Department of Gastroenterology and Hepatology, Baylor College of Medicine, Houston, Texas.; 12Institute for Clinical and Translational Research, Baylor College of Medicine, Houston, Texas.; 12Institute for Clinical and Translational Research, Baylor College of Medicine, Houston, Texas.; 13Division of Hematology &amp; Oncology, Baylor College of Medicine, Houston, Texas.; 14Division of Hematology/Oncology, University of Arizona Cancer Center, Tucson, Arizona.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Department of Epidemiology, The University of Texas MD Anderson Cancer Center, Houston, Texas.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Table S4 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4385563388</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Independent of Primary Sclerosing Cholangitis and Cirrhosis, Early Adulthood Obesity Is Associated with Cholangiocarcinoma</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancer Epidemiology, Biomarkers &amp; Prevention</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473188</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1055-9965.epi-23-0388</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L54" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473188</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37540502</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1055-9965.epi-23-0388</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4788,80 +5058,85 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Leontios Pappas, Islam Baiev, Stephanie Reyes, Andrea Grace Bocobo, Apurva Jain, Kristen Spencer, Tri Minh Le, Osama E. Rahma, Jordan Maurer, J. J. Stanton, Karen Zhang, Anaemy Danner De Armas, Thomas DeLeon, Marc Roth, Mary Linton B. Peters, A. X. Zhu, Kylie Boyhen, Christine VanCott, Tushar Patel, Lewis R. Roberts, Stacie Lindsey, Nora Horick, Jochen K. Lennerz, A. John Iafrate, Laura Williams Goff, Kabir Mody, Mitesh J. Borad, Rachna T. Shroff, Milind Javle, Robin K. Kelley, Lipika Goyal</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407375</t>
+          <t>Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Harvard Medical School, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Duke University School of Medicine, Durham, NC; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Department of Medicine, NYU Langone Health Perlmutter Cancer Center, NYU School of Medicine, New York, NY; Department of Medicine, University of Virginia Comprehensive Cancer Center, Charlottesville, VA; Department of Medical Oncology, Dana-Farber Cancer Institute, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Division of Hematology/Oncology, Mayo Clinic, Scottsdale, AZ; Department of Medical Oncology, St Luke's Cancer Institute, Kansas City, MO; Department of Medicine, Beth Israel Deaconess Medical Center, Boston, MA; I-MAB Biopharma, Shanghai, China; Jiahui International Cancer Center, Jiahui Health, Shanghai, China; Yale University, New Haven, CT; Department of Medicine, HCA Florida South Tampa Hospital, Tampa, FL; Department of Transplantation, Mayo Clinic, Jacksonville, FL; Division of Gastroenterology and Hepatology, Mayo Clinic, Rochester, MN; The Cholangiocarcinoma Foundation, Herriman, UT; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Center for Integrated Diagnostics, Department of Pathology, Massachusetts General Hospital/Harvard Medical School, Boston, MA; Center for Integrated Diagnostics, Department of Pathology, Massachusetts General Hospital/Harvard Medical School, Boston, MA; Department of Medicine, Vanderbilt-Ingram Cancer Center, Nashville, TN; Division of Hematology/Oncology, Mayo Clinic, Jacksonville, FL; Division of Hematology/Oncology, Mayo Clinic, Scottsdale, AZ; University of Arizona Cancer Center, University of Arizona, Tucson, AZ; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Department of Medicine, Division of Oncology, Stanford Cancer Center, Palo Alto, CA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Harvard Medical School, Boston, MA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Table S5 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4385727233</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>The Cholangiocarcinoma in the Young (CITY) Study: Tumor Biology, Treatment Patterns, and Survival Outcomes in Adolescent Young Adults With Cholangiocarcinoma</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>JCO Precision Oncology</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473185</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/po.22.00594</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473185</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37561981</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/po.22.00594</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4870,27 +5145,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407440</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Table S6 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4386377327</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -4900,50 +5175,55 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473182</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.24071544</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N56" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473182</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.24071544</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -4952,27 +5232,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407661</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Supplemental Table Legend from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4386377627</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -4982,50 +5262,55 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473200</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.24071544.v1</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N57" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473200</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.24071544.v1</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5034,27 +5319,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407694</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Table S1 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4386377658</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5064,50 +5349,55 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473197</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v3</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>bronze</t>
-        </is>
-      </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N58" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.22473197</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v3</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5116,80 +5406,85 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Shamar Young, Jack Hannallah, Daniel W. Goldberg, Mohammad Khreiss, Rachna T. Shroff, Junaid Arshad, Aaron J. Scott, Gregory Woodhead</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407921</t>
+          <t>Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Surgical Oncology, Department of Surgery, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Table S2 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>https://openalex.org/W4391182888</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>Liver-Directed Therapy Combined with Systemic Therapy: Current Status and Future Directions</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Seminars in Interventional Radiology</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473194</t>
+          <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1055/s-0043-1777711</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473194</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38274222</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1055/s-0043-1777711</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5198,42 +5493,42 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Jordi Rodón, Lipika Goyal, T. Macarulla Mercadé, Masafumi Ikeda, Shunsuke Kondo, Do‐Youn Oh, Li‐Yuan Bai, Makoto Ueno, Antoîne Italiano, Kyriakos P. Papadopoulos, David R. Spigel, Sani H. Kizilbash, Rasha Cosman, Joon Oh Park, Li-Tzong Chen, Tomoya Yokota, Anita Ahmed Turk, Chih‐Yi Liao, Rachna T. Shroff, Anthony B. El-Khoueiry, Taroh Satoh, Antoine Hollebecque, Mitesh J. Borad, Nilofer S. Azad, Kurt A. Jaeckle, Herbert H. F. Loong, Jorge Adeva, Wei Peng Yong, Junjie Zhao, Hui Liu, Anna M. Szpurka, Ivelina Gueorguieva, Kamnesh R. Pradhan, Xiping Xu, James J. Harding</t>
+          <t>Ifeanyichukwu Ogobuiro, Yasmine Baca, Jennifer R. Ribeiro, Phillip Walker, Gregory C. Wilson, Pat Gulhati, John L. Marshall, Rachna T. Shroff, David Speltzer, Matthew James Oberley, Daniel E. Abbott, Hong Joo Kim, David A. Kooby, Shishir K. Maithel, Syed A. Ahmad, Nipun B. Merchant, Joanne Xiu, Peter J. Hosein, Jashodeep Datta</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365513192</t>
+          <t>Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; University of Cincinnati Medical Center, Cincinnati, OH; Robert Wood Johnson Medical School, The Cancer Institute of NJ, New Brunswick, NJ; Georgetown University; University of Arizona; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; University of Wisconsin Carbone Cancer Center, Madison, WI; The University of North Carolina at Chapel Hill, Chapel Hill, NC; Emory University; Emory University; University of Cincinnati Medical Center, Cincinnati, OH; Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Inc.; University of Miami; Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Abstract CT098: A first-in-human phase 1 study of LY3410738, a covalent inhibitor of mutant IDH, in advanced IDH-mutant cholangiocarcinoma and other solid tumors</t>
+          <t>https://openalex.org/W4361288397</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>Multi-omic characterization reveals a distinct molecular landscape in young-onset pancreatic cancer</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cancer Research</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-ct098</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1101/2023.03.28.23287894</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5243,35 +5538,40 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-ct098</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37034762</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2023.03.28.23287894</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5280,80 +5580,85 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Harshabad Singh, Kevin S. Kapner, Joanne Xiu, Matthew James Oberley, Alex Farrell, Jimmy A. Guo, Rishi Surana, Kimberly Perez, James M. Cleary, Srivatsan Raghavan, Benjamin A. Weinberg, Michael J. Pishvaian, Rachna T. Shroff, Sanjay Goel, Stephanie K. Dougan, Jonathan A. Nowak, David Spetzler, George W. Sledge, Brian M. Wolpin, Andrew J. Aguirre</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379333365</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Clinical genomic implications of transcriptional subtypes in pancreatic cancer.</t>
+          <t>https://openalex.org/W4361887145</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Supplementary Tables and Figures from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4145</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22470219</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N61" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4145</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22470219</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5362,80 +5667,85 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Andrew H. Ko, Mark M. Zalupski, Raed Moh’d Taiseer Al-Rajabi, Khalid Matin, Deirdre Jill Cohen, Smitha Krishnamurthi, Brent L. Kreider, Jessica A. Box, Caroline M. Emery, Martin G. Teresk, Mary Varterasian, Lee Martin, Anna Groover, Deb Knoerzer, Rachna T. Shroff</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379336702</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>A phase 2 basket trial of ulixertinib (BVD-523) in combination with hydroxychloroquine in patients with advanced gastrointestinal malignancies harboring MAPK pathway mutations (BVD-523-HCQ).</t>
+          <t>https://openalex.org/W4361887178</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Supplementary Movie (high delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4174</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22470225</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N62" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4174</t>
-        </is>
-      </c>
       <c r="P62" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22470225</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5444,27 +5754,27 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382243853</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4361891603</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5474,50 +5784,55 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22487568</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N63" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v1</t>
-        </is>
-      </c>
       <c r="P63" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487568</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5526,27 +5841,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382244076</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4361891718</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5556,50 +5871,55 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23586793</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22487562</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L64" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N64" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.23586793</t>
-        </is>
-      </c>
       <c r="P64" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22487562</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5608,27 +5928,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382244083</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4361933633</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Supplementary Tables and Figures from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5638,50 +5958,55 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22470219.v1</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N65" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507</t>
-        </is>
-      </c>
       <c r="P65" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22470219.v1</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5690,27 +6015,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382245968</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4361935696</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>Table S7 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5720,50 +6045,55 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23586793.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22473179.v1</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L66" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N66" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.23586793.v1</t>
-        </is>
-      </c>
       <c r="P66" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473179.v1</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5772,80 +6102,85 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Juan W. Valle, Ghassan K. Abou‐Alfa, Robin Kate Kelley, Maeve A. Lowery, Rachna T. Shroff, Yunyi Bian, Gaëlle Saint‐Hilary, Hui Liu, Teng Zhang, Hua Zhang, Camelia Gliser, Arndt Vogel, Milind Javle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382799159</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SO-2 Quantitative risk-benefit assessment of ivosidenib compared to placebo in patients with IDH1-mutated intrahepatic cholangiocarcinoma: Phase 3 ClarIDHy trial</t>
+          <t>https://openalex.org/W4361935712</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Table S1 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.474</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22473197.v1</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L67" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N67" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.474</t>
-        </is>
-      </c>
       <c r="P67" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473197.v1</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5854,80 +6189,85 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>James J. Harding, Masafumi Ikeda, Lipika Goyal, Jordi Rodón, Li‐Yuan Bai, Do‐Youn Oh, J. Park, Li Fen Chen, Makoto Ueno, Chih‐Yi Liao, Shu Kondo, Rasha Cosman, Tomoya Yokota, Rachna T. Shroff, Taroh Satoh, Lola‐Jade Palmieri, Antoine Hollebecque, Jorge Adeva, Mark H. Bender, H. Liu, Teresa Macarulla</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382806768</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SO-1 A first-in-human phase 1 study of LY3410738, a covalent inhibitor of mutant IDH1 and IDH2, as monotherapy and in combination with cisplatin and gemcitabine in advanced IDH-mutant cholangiocarcinoma</t>
+          <t>https://openalex.org/W4361935961</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Table S6 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.473</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22473182.v1</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L68" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.473</t>
-        </is>
-      </c>
       <c r="P68" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473182.v1</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -5936,80 +6276,85 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jennifer J. Knox, I. Bazin, Do Youn Oh, O. Zubkov, V. Breder, Li‐Yuan Bai, Alan Christie, Mairéad G. McNamara, Lipika Goyal, David Cosgrove, Christoph Springfeld, Katrin Marie Sjoquist, J. Park, Helena Verdaguer, Chiara Braconi, Paul Ross, Aimery de Gramont, Rachna T. Shroff, John Zalcberg, Daniel H. Palmer, Juan W. Valle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382807504</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>O-2 Phase III study of NUC-1031 + cisplatin vs gemcitabine + cisplatin for first-line treatment of patients with advanced biliary tract cancer (NuTide:121)</t>
+          <t>https://openalex.org/W4361935966</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Supplemental Table Legend from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.017</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22473200.v1</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
+          <t>submittedVersion</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L69" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N69" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.017</t>
-        </is>
-      </c>
       <c r="P69" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473200.v1</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6018,27 +6363,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384071504</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4361954118</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>Data from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6048,50 +6393,55 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23668923</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6532539.v1</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N70" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.23668923</t>
-        </is>
-      </c>
       <c r="P70" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.c.6532539.v1</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6100,27 +6450,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384071588</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4362166390</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>Supplementary Methods from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6130,50 +6480,55 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v2</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22470228</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
+          <t>cc-by</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N71" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v2</t>
-        </is>
-      </c>
       <c r="P71" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22470228</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6182,27 +6537,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384071663</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4362407208</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>Table S3 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6212,50 +6567,55 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23668923.v1</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22473191</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N72" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.23668923.v1</t>
-        </is>
-      </c>
       <c r="P72" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473191</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6264,80 +6624,85 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Rikita Hatia, Madhulika Eluri, Ernest T. Hawk, Akram Shalaby, Emine Karataş, A. M. Shalaby, Ahmed Abdelhakeem, Reham Abdel-Wahab, Ping Chang, Asif Rashid, Prasun K. Jalal, Christopher I. Amos, Younghun Han, Tannaz Armaghany, Rachna T. Shroff, Donghui Li, Milind Javle, Manal M. Hassan</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385563388</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Independent of Primary Sclerosing Cholangitis and Cirrhosis, Early Adulthood Obesity Is Associated with Cholangiocarcinoma</t>
+          <t>https://openalex.org/W4362407375</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>Table S5 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cancer Epidemiology, Biomarkers &amp; Prevention</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1055-9965.epi-23-0388</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1158/1078-0432.22473185</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37540502</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1055-9965.epi-23-0388</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473185</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6346,80 +6711,85 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Leontios Pappas, Islam Baiev, Stephanie Reyes, Andrea Grace Bocobo, Apurva Jain, Kristen Spencer, Tri Minh Le, Osama E. Rahma, Jordan Maurer, J. J. Stanton, Karen Zhang, Anaemy Danner De Armas, Thomas DeLeon, Marc Roth, Mary Linton B. Peters, A. X. Zhu, Kylie Boyhen, Christine VanCott, Tushar Patel, Lewis R. Roberts, Stacie Lindsey, Nora Horick, Jochen K. Lennerz, A. John Iafrate, Laura Williams Goff, Kabir Mody, Mitesh J. Borad, Rachna T. Shroff, Milind Javle, Robin K. Kelley, Lipika Goyal</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385727233</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>The Cholangiocarcinoma in the Young (CITY) Study: Tumor Biology, Treatment Patterns, and Survival Outcomes in Adolescent Young Adults With Cholangiocarcinoma</t>
+          <t>https://openalex.org/W4362407661</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>Supplemental Table Legend from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>JCO Precision Oncology</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/po.22.00594</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>https://doi.org/10.1158/1078-0432.22473200</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
+          <t>da</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37561981</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/po.22.00594</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473200</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6428,27 +6798,27 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386377327</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4362407921</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Table S2 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6458,50 +6828,55 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.24071544</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1158/1078-0432.22473194</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>submittedVersion</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
       <c r="L75" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N75" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.24071544</t>
-        </is>
-      </c>
       <c r="P75" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1158/1078-0432.22473194</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6510,80 +6885,85 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Harshabad Singh, Kevin S. Kapner, Joanne Xiu, Matthew James Oberley, Alex Farrell, Jimmy A. Guo, Rishi Surana, Kimberly Perez, James M. Cleary, Srivatsan Raghavan, Benjamin A. Weinberg, Michael J. Pishvaian, Rachna T. Shroff, Sanjay Goel, Stephanie K. Dougan, Jonathan A. Nowak, David Spetzler, George W. Sledge, Brian M. Wolpin, Andrew J. Aguirre</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386377627</t>
+          <t>Dana-Farber Cancer Institute, Brookline, MA; Dana-Farber Cancer Institute, Boston, MA; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Cambridge, MA; Georgetown University Medical Center, Washington, DC; Johns Hopkins University School of Medicine, Washington, DC; University of Arizona Cancer Center, Tucson, AZ; Rutgers Cancer Institute of New Jersey, New Brunswick, NJ; Dana-Farber Cancer Institute, Boston, MA; Brigham and Women's Hospital, Boston, MA; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Dana-Farber Cancer Institute Gastrointestinal Cancer Center, Boston, MA; Dana-Farber Cancer Institute, Boston, MA</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4379333365</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Clinical genomic implications of transcriptional subtypes in pancreatic cancer.</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.24071544.v1</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4145</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N76" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.24071544.v1</t>
-        </is>
-      </c>
       <c r="P76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4145</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6592,80 +6972,85 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
+          <t>Juan W. Valle, Ghassan K. Abou‐Alfa, Robin Kate Kelley, Maeve A. Lowery, Rachna T. Shroff, Yunyi Bian, Gaëlle Saint‐Hilary, Hui Liu, Teng Zhang, Hua Zhang, Camelia Gliser, Arndt Vogel, Milind Javle</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386377658</t>
+          <t>The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom; Department of Medicine, Memorial Sloan Kettering Cancer Center, Cornell University and Weill Medical College, Cornell University, New York, United States; Helen Diller Family Comprehensive Cancer Center, University of California, San Francisco, United States; Trinity St. James Cancer Institute, Dublin, Ireland; University of Arizona Cancer Center, Tucson, United States; Servier Pharmaceuticals, Boston, United States; Saryga, Tournus, France; Servier Pharmaceuticals, Boston, United States; Department of Gastrointestinal Medical Oncology, UT MD Anderson Cancer Center, Houston, United States; Servier Pharmaceuticals, Boston, United States; Servier Pharmaceuticals, Boston, United States; Hannover Medical School, Hannover, Germany; Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, United States</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>https://openalex.org/W4382799159</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>SO-2 Quantitative risk-benefit assessment of ivosidenib compared to placebo in patients with IDH1-mutated intrahepatic cholangiocarcinoma: Phase 3 ClarIDHy trial</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v3</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.474</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N77" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v3</t>
-        </is>
-      </c>
       <c r="P77" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.474</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6674,80 +7059,85 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ifeanyichukwu Ogobuiro, Yasmine Baca, Jennifer R. Ribeiro, Phillip Walker, Gregory C. Wilson, Pat Gulhati, John L. Marshall, Rachna T. Shroff, David Spetzler, Matthew J. Oberley, Daniel E. Abbott, Hee Jin Kim, David A. Kooby, Shishir K. Maithel, Syed A. Ahmad, Nipun B. Merchant, Joanne Xiu, Peter J. Hosein, Jashodeep Datta</t>
+          <t>James J. Harding, Masafumi Ikeda, Lipika Goyal, Jordi Rodón, Li‐Yuan Bai, Do‐Youn Oh, J. Park, Li Fen Chen, Makoto Ueno, Chih‐Yi Liao, Shu Kondo, Rasha Cosman, Tomoya Yokota, Rachna T. Shroff, Taroh Satoh, Lola‐Jade Palmieri, Antoine Hollebecque, Jorge Adeva, Mark H. Bender, H. Liu, Teresa Macarulla</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388521843</t>
+          <t>Memorial Sloan Kettering Cancer Center, New York, United States; National Cancer Center Hospital East, Kashiwa, Japan; Stanford Cancer Center, Palo Alto, United States; The University of Texas MD Anderson Cancer Center, Houston, United States; China Medical University Hospital, Taichung, Taiwan; Seoul National University College of Medicine, Seoul, South Korea; Division of Hematology-Oncology, Department of Medicine, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, South Korea; Kaohsiung Medical University Hospital, Kaohsiung, Taiwan; Department of Gastroenterology, Kanagawa Cancer Center, Kanagawa, Japan; The University of Chicago Medical Center, Chicago, United States; National Cancer Center, Tokyo, Japan; The Kinghorn Cancer Centre, St Vincent's Hospital, Darlinghurst, Australia; Shizuoka Cancer Center, Nagaizumi, Japan; University of Arizona Cancer Center, Tucson, United States; Department of Medical Oncology, Kinki University School of Medicine, Osaka, Japan; Department of Medical Oncology, Institut Bergonié, Bordeaux, France; Department of Medical Oncology, Gustave Roussy, Villejuif, France; Hospital 12 de Octubre, Madrid, Spain; Eli Lilly and Company, Indianapolis, United States; Loxo@Lilly, Indianapolis, United States; Vall d’Hebron Institute of Oncology (VHIO), Vall d’Hebron University Hospital, Barcelona, Spain</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Multiomic Characterization Reveals a Distinct Molecular Landscape in Young-Onset Pancreatic Cancer</t>
+          <t>https://openalex.org/W4382806768</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>SO-1 A first-in-human phase 1 study of LY3410738, a covalent inhibitor of mutant IDH1 and IDH2, as monotherapy and in combination with cisplatin and gemcitabine in advanced IDH-mutant cholangiocarcinoma</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>JCO Precision Oncology</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/po.23.00152</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.473</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37944072</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/po.23.00152</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.473</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -6756,80 +7146,85 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Shamar Young, Jack Hannallah, Daniel W. Goldberg, Mohammad Khreiss, Rachna T. Shroff, Junaid Arshad, Aaron J. Scott, Gregory Woodhead</t>
+          <t>Ifeanyichukwu Ogobuiro, Yasmine Baca, Jennifer R. Ribeiro, Phillip Walker, Gregory C. Wilson, Pat Gulhati, John L. Marshall, Rachna T. Shroff, David Spetzler, Matthew J. Oberley, Daniel E. Abbott, Hee Jin Kim, David A. Kooby, Shishir K. Maithel, Syed A. Ahmad, Nipun B. Merchant, Joanne Xiu, Peter J. Hosein, Jashodeep Datta</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391182888</t>
+          <t>Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; University of Cincinnati Medical Center, Cincinnati, OH; Robert Wood Johnson Medical School, The Cancer Institute of NJ, New Brunswick, NJ; Georgetown University, Washington, DC; University of Arizona Cancer Center, Tucson, AZ; Caris Life Sciences, Irving, TX; Caris Life Sciences, Irving, TX; University of Wisconsin Carbone Cancer Center, Madison, WI; The University of North Carolina at Chapel Hill, Chapel Hill, NC; Winship Cancer Institute, Emory University, Atlanta, GA; Winship Cancer Institute, Emory University, Atlanta, GA; University of Cincinnati Medical Center, Cincinnati, OH; Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Phoenix, AZ; Department of Medicine, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Liver-Directed Therapy Combined with Systemic Therapy: Current Status and Future Directions</t>
+          <t>https://openalex.org/W4388521843</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>Multiomic Characterization Reveals a Distinct Molecular Landscape in Young-Onset Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Seminars in Interventional Radiology</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Thieme Medical Publishers (Germany)</t>
+          <t>JCO Precision Oncology</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1777711</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.1200/po.23.00152</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38274222</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1777711</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37944072</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1200/po.23.00152</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
         <is>
           <t>article</t>
         </is>

--- a/DOM_Banner/output/dept0713/Rachna Shroff_2023.xlsx
+++ b/DOM_Banner/output/dept0713/Rachna Shroff_2023.xlsx
@@ -507,7 +507,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -795,7 +795,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1143,42 +1143,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Davendra Sohal, Jordan Kharofa, Olugbenga Olowokure, Adam Rojan, Sameer H. Patel, Gregory C. Wilson, Jeffrey J. Sussman, Katie Moreland, Krushna C. Patra, Vladimir Bogdanov, Taylor S. Riall, Yana Zavros, Rachna T. Shroff, Syed A. Ahmad</t>
+          <t>Jordi Rodón, Lipika Goyal, T. Macarulla Mercadé, Masafumi Ikeda, Shunsuke Kondo, Do‐Youn Oh, Li‐Yuan Bai, Makoto Ueno, Antoîne Italiano, Kyriakos P. Papadopoulos, David R. Spigel, Sani H. Kizilbash, Rasha Cosman, Joon Oh Park, Li-Tzong Chen, Tomoya Yokota, Anita Ahmed Turk, Chih‐Yi Liao, Rachna T. Shroff, Anthony B. El-Khoueiry, Taroh Satoh, Antoine Hollebecque, Mitesh J. Borad, Nilofer S. Azad, Kurt A. Jaeckle, Herbert H. F. Loong, Jorge Adeva, Wei Peng Yong, Junjie Zhao, Hui Liu, Anna M. Szpurka, Ivelina Gueorguieva, Kamnesh R. Pradhan, Xiping Xu, James J. Harding</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>University of Cincinnati, Cincinnati, OH;; University of Cincinnati Cancer Center, Cincinnati, OH;; University of Cincinnati, Cincinnati, OH;; University Of Cincinnati, Cincinnati, OH;; University of Cincinnati Medical Center, Cincinnati, OH;; University of Cincinnati Cancer Center, Cincinnati, OH;; University Of Cincinnati, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Cincinnati Medical Center, Cincinnati, OH;</t>
+          <t>1MD Anderson Cancer Center, Houston, TX;; 2Massachusetts General Hospital Cancer Center, Boston, MA;; 3Vall d'Hebron University Hospital and Vall d'Hebron Institute of Oncology (VHIO), Barcelona, Spain;; 4National Cancer Center Hospital East, Kashiwa, Japan;; 5National Cancer Center Hospital, Tokyo, Japan;; 6Department of Internal Medicine, Seoul National University College of Medicine, Seoul, Republic of Korea;; 7China Medical University Hospital, Taichung, Taiwan;; 8Department of Gastroenterology, Kanagawa Cancer Center, Kanagawa, Japan;; 9Department of Medical Oncology, Institut Bergonié, Bordeaux, France;; 10START San Antonio, San Antonio, TX;; 11Sarah Cannon Research Institute/Tennessee Oncology, Nashville, TN;; 12Department of Oncology, Mayo Clinic, Rochester, MN;; 13The Kinghorn Cancer Centre, St Vincent's Hospital, Sydney, The University of New South Wales, Sydney, Australia;; 14Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea;; 15National Cheng Kung University Hospital, National Cheng Kung University, Tainan, Taiwan;; 16Division of Gastrointestinal Oncology, Shizuoka Cancer Center, Sunto-gun, Japan;; 17Indiana University School of Medicine, Indianapolis, IN;; 18The University of Chicago Medical Center, Chicago, IL;; 19University of Arizona Cancer Center, Tucson, AZ;; 20University of Southern California Norris Comprehensive Cancer Center, Los Angeles, CA;; 21Department of Medical Oncology, Kinki University School of Medicine, Osaka, Japan;; 22Department of Medical Oncology, Gustave Roussy, Villejuif, France;; 23Department of Oncology, Mayo Clinic Arizona, Scottsdale, AZ;; 24Johns Hopkins Sidney Kimmel Comprehensive Cancer Center, Baltimore, MD;; 25Department of Neurology, Mayo Clinic Florida, Jacksonville, FL;; 26Department of Clinical Oncology, The Chinese University of Hong Kong, Shatin, Hong Kong;; 27Department of Medical Oncology, Hospital Universitario 12 de Octubre, Madrid, Spain;; 28National University Cancer Institute, Singapore, Singapore;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 30Eli Lilly, England, United Kingdom;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 31David H. Koch Center for Cancer Care at Memorial Sloan Kettering Cancer Center, New York, NY.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4317862879</t>
+          <t>https://openalex.org/W4365513192</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>An adaptive approach to neoadjuvant therapy to maximize resection rates for pancreatic adenocarcinoma: A phase II trial.</t>
+          <t>Abstract CT098: A first-in-human phase 1 study of LY3410738, a covalent inhibitor of mutant IDH, in advanced IDH-mutant cholangiocarcinoma and other solid tumors</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2023-02-01</t>
+          <t>2023-04-14</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>Cancer Research</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps771</t>
+          <t>https://doi.org/10.1158/1538-7445.am2023-ct098</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps771</t>
+          <t>https://doi.org/10.1158/1538-7445.am2023-ct098</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1230,42 +1230,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Christopher L. Bowlus, Lionel Arrivé, Annika Bergquist, Mark Deneau, Lisa Forman, Sumera I. Ilyas, Keri E Lundsford, Mercedes Martínez, Gonzalo Sapisochín, Rachna T. Shroff, James H. Tabibian, David N. Assis</t>
+          <t>Ifeanyichukwu Ogobuiro, Yasmine Baca, Jennifer R. Ribeiro, Phillip Walker, Gregory C. Wilson, Pat Gulhati, John L. Marshall, Rachna T. Shroff, David Speltzer, Matthew James Oberley, Daniel E. Abbott, Hong Joo Kim, David A. Kooby, Shishir K. Maithel, Syed A. Ahmad, Nipun B. Merchant, Joanne Xiu, Peter J. Hosein, Jashodeep Datta</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Division of Gastroenterology and Hepatology, University of California Davis Health, Sacramento, California, USA; Hôpital Saint-Antoine, Paris, France; Karolinska Institutet, Karolinska University Hospital, Stockholm, Sweden; Department of Pediatrics, University of Utah, Salt Lake City, Utah, USA; Division of Gastroenterology, University of Colorado, Aurora, Colorado, USA; Mayo Clinic College of Medicine and Science, Rochester, Minnesota, USA; New Jersey Medical School, Rutgers University, Newark, New Jersey, USA; Vagelos College of Physician and Surgeons, Columbia University, New York, New York, USA; Department of Surgery, University of Toronto, Toronto, Ontario, Canada; Division of Hematology and Oncology Tucson, University of Arizona, Arizona, USA; David Geffen School of Medicine at UCLA, Los Angeles, California, USA; Yale School of Medicine, New Haven, Connecticut, USA</t>
+          <t>Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; University of Cincinnati Medical Center, Cincinnati, OH; Robert Wood Johnson Medical School, The Cancer Institute of NJ, New Brunswick, NJ; Georgetown University; University of Arizona; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; University of Wisconsin Carbone Cancer Center, Madison, WI; The University of North Carolina at Chapel Hill, Chapel Hill, NC; Emory University; Emory University; University of Cincinnati Medical Center, Cincinnati, OH; Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Inc.; University of Miami; Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318025507</t>
+          <t>https://openalex.org/W4361288397</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Reply</t>
+          <t>Multi-omic characterization reveals a distinct molecular landscape in young-onset pancreatic cancer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2023-01-26</t>
+          <t>2023-03-29</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Hepatology</t>
+          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Cold Spring Harbor Laboratory</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hep.0000000000000305</t>
+          <t>https://doi.org/10.1101/2023.03.28.23287894</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1300,12 +1300,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36695291</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37034762</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hep.0000000000000305</t>
+          <t>https://doi.org/10.1101/2023.03.28.23287894</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1317,52 +1317,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lisa Forman, Gonzalo Sapisochín, David N. Assis, Lionel Arrivé, Annika Bergquist, Christopher L. Bowlus, Mark Deneau, Sumera I. Ilyas, Keri E. Lunsford, Mercedes Martínez, Rachna T. Shroff, James H. Tabibian</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Univeristy of Colorado, Aurora, Colorado, USA; University of Toronto, Toronto, Ontario, Canada; Yale School of Medicine, New Haven, Connecticut USA; Saint Antoine Hospital Paris, France; Karolinska Institute, Karolinska University Hospital Stockholm, Sweden; University of California Davis Health, Sacramento California, USA; University of Utah, Salt Lake City, Utah, USA; Mayo Clinic College of Medicine and Science Rochester, Minnesota, USA; Rutgers University—New Jersey Medical School Newark, New Jersey, USA; Vagelos College of Physician and Surgeons—Columbia University, New York, New York, USA; University of Arizona, Tuscon, Arizona, USA; David Geffen School of Medicine at UCLA, Los Angeles, California, USA</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4318945467</t>
+          <t>https://openalex.org/W4361891603</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Reply: Living donor liver transplantation for people with PSC</t>
+          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2023-01-03</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hepatology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hep.0000000000000210</t>
+          <t>https://doi.org/10.1158/1078-0432.22487568</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/36732294</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/hep.0000000000000210</t>
+          <t>https://doi.org/10.1158/1078-0432.22487568</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1404,7 +1404,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361887863</t>
+          <t>https://openalex.org/W4361954118</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Table S7 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Data from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473179</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6532539.v1</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473179</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6532539.v1</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1491,57 +1491,57 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Harshabad Singh, Kevin S. Kapner, Joanne Xiu, Matthew James Oberley, Alex Farrell, Jimmy A. Guo, Rishi Surana, Kimberly Perez, James M. Cleary, Srivatsan Raghavan, Benjamin A. Weinberg, Michael J. Pishvaian, Rachna T. Shroff, Sanjay Goel, Stephanie K. Dougan, Jonathan A. Nowak, David Spetzler, George W. Sledge, Brian M. Wolpin, Andrew J. Aguirre</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Dana-Farber Cancer Institute, Brookline, MA; Dana-Farber Cancer Institute, Boston, MA; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Cambridge, MA; Georgetown University Medical Center, Washington, DC; Johns Hopkins University School of Medicine, Washington, DC; University of Arizona Cancer Center, Tucson, AZ; Rutgers Cancer Institute of New Jersey, New Brunswick, NJ; Dana-Farber Cancer Institute, Boston, MA; Brigham and Women's Hospital, Boston, MA; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Dana-Farber Cancer Institute Gastrointestinal Cancer Center, Boston, MA; Dana-Farber Cancer Institute, Boston, MA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891645</t>
+          <t>https://openalex.org/W4379333365</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Clinical genomic implications of transcriptional subtypes in pancreatic cancer.</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487547</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4145</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487547</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4145</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1578,42 +1578,42 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Ifeanyichukwu Ogobuiro, Yasmine Baca, Jennifer R. Ribeiro, Phillip Walker, Gregory C. Wilson, Pat Gulhati, John L. Marshall, Rachna T. Shroff, David Spetzler, Matthew J. Oberley, Daniel E. Abbott, Hee Jin Kim, David A. Kooby, Shishir K. Maithel, Syed A. Ahmad, Nipun B. Merchant, Joanne Xiu, Peter J. Hosein, Jashodeep Datta</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; University of Cincinnati Medical Center, Cincinnati, OH; Robert Wood Johnson Medical School, The Cancer Institute of NJ, New Brunswick, NJ; Georgetown University, Washington, DC; University of Arizona Cancer Center, Tucson, AZ; Caris Life Sciences, Irving, TX; Caris Life Sciences, Irving, TX; University of Wisconsin Carbone Cancer Center, Madison, WI; The University of North Carolina at Chapel Hill, Chapel Hill, NC; Winship Cancer Institute, Emory University, Atlanta, GA; Winship Cancer Institute, Emory University, Atlanta, GA; University of Cincinnati Medical Center, Cincinnati, OH; Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Phoenix, AZ; Department of Medicine, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891655</t>
+          <t>https://openalex.org/W4388521843</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Multiomic Characterization Reveals a Distinct Molecular Landscape in Young-Onset Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>JCO Precision Oncology</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487556</t>
+          <t>https://doi.org/10.1200/po.23.00152</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37944072</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487556</t>
+          <t>https://doi.org/10.1200/po.23.00152</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -1665,57 +1665,57 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Davendra Sohal, Jordan Kharofa, Olugbenga Olowokure, Adam Rojan, Sameer H. Patel, Gregory C. Wilson, Jeffrey J. Sussman, Katie Moreland, Krushna C. Patra, Vladimir Bogdanov, Taylor S. Riall, Yana Zavros, Rachna T. Shroff, Syed A. Ahmad</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>University of Cincinnati, Cincinnati, OH;; University of Cincinnati Cancer Center, Cincinnati, OH;; University of Cincinnati, Cincinnati, OH;; University Of Cincinnati, Cincinnati, OH;; University of Cincinnati Medical Center, Cincinnati, OH;; University of Cincinnati Cancer Center, Cincinnati, OH;; University Of Cincinnati, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Cincinnati College of Medicine, Cincinnati, OH;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Arizona Cancer Center, Tucson, AZ;; University of Cincinnati Medical Center, Cincinnati, OH;</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891667</t>
+          <t>https://openalex.org/W4317862879</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>An adaptive approach to neoadjuvant therapy to maximize resection rates for pancreatic adenocarcinoma: A phase II trial.</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-02-01</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487559</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps771</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487559</t>
+          <t>https://doi.org/10.1200/jco.2023.41.4_suppl.tps771</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -1752,52 +1752,52 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Christopher L. Bowlus, Lionel Arrivé, Annika Bergquist, Mark Deneau, Lisa Forman, Sumera I. Ilyas, Keri E Lundsford, Mercedes Martínez, Gonzalo Sapisochín, Rachna T. Shroff, James H. Tabibian, David N. Assis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Division of Gastroenterology and Hepatology, University of California Davis Health, Sacramento, California, USA; Hôpital Saint-Antoine, Paris, France; Karolinska Institutet, Karolinska University Hospital, Stockholm, Sweden; Department of Pediatrics, University of Utah, Salt Lake City, Utah, USA; Division of Gastroenterology, University of Colorado, Aurora, Colorado, USA; Mayo Clinic College of Medicine and Science, Rochester, Minnesota, USA; New Jersey Medical School, Rutgers University, Newark, New Jersey, USA; Vagelos College of Physician and Surgeons, Columbia University, New York, New York, USA; Department of Surgery, University of Toronto, Toronto, Ontario, Canada; Division of Hematology and Oncology Tucson, University of Arizona, Arizona, USA; David Geffen School of Medicine at UCLA, Los Angeles, California, USA; Yale School of Medicine, New Haven, Connecticut, USA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891689</t>
+          <t>https://openalex.org/W4318025507</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Reply</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-01-26</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hepatology</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487550</t>
+          <t>https://doi.org/10.1097/hep.0000000000000305</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1822,12 +1822,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36695291</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487550</t>
+          <t>https://doi.org/10.1097/hep.0000000000000305</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1839,52 +1839,52 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Lisa Forman, Gonzalo Sapisochín, David N. Assis, Lionel Arrivé, Annika Bergquist, Christopher L. Bowlus, Mark Deneau, Sumera I. Ilyas, Keri E. Lunsford, Mercedes Martínez, Rachna T. Shroff, James H. Tabibian</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Univeristy of Colorado, Aurora, Colorado, USA; University of Toronto, Toronto, Ontario, Canada; Yale School of Medicine, New Haven, Connecticut USA; Saint Antoine Hospital Paris, France; Karolinska Institute, Karolinska University Hospital Stockholm, Sweden; University of California Davis Health, Sacramento California, USA; University of Utah, Salt Lake City, Utah, USA; Mayo Clinic College of Medicine and Science Rochester, Minnesota, USA; Rutgers University—New Jersey Medical School Newark, New Jersey, USA; Vagelos College of Physician and Surgeons—Columbia University, New York, New York, USA; University of Arizona, Tuscon, Arizona, USA; David Geffen School of Medicine at UCLA, Los Angeles, California, USA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891776</t>
+          <t>https://openalex.org/W4318945467</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Reply: Living donor liver transplantation for people with PSC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-01-03</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Hepatology</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487553</t>
+          <t>https://doi.org/10.1097/hep.0000000000000210</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/36732294</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487553</t>
+          <t>https://doi.org/10.1097/hep.0000000000000210</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1926,22 +1926,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891798</t>
+          <t>https://openalex.org/W4361887145</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Supplementary Tables and Figures from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487565</t>
+          <t>https://doi.org/10.1158/1078-0432.22470219</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487565</t>
+          <t>https://doi.org/10.1158/1078-0432.22470219</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -2013,7 +2013,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361933456</t>
+          <t>https://openalex.org/W4361887178</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Supplementary Movie (low delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Supplementary Movie (high delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470222.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22470225</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470222.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22470225</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2100,22 +2100,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361933616</t>
+          <t>https://openalex.org/W4361887863</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Supplementary Methods from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Table S7 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470228.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473179</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470228.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473179</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2187,22 +2187,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361933905</t>
+          <t>https://openalex.org/W4361891645</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Supplementary Movie (high delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470225.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487547</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470225.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487547</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2274,7 +2274,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2284,12 +2284,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935689</t>
+          <t>https://openalex.org/W4361891655</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Table S4 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473188.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487556</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473188.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487556</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2371,12 +2371,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361940878</t>
+          <t>https://openalex.org/W4361891667</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487565.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487559</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487565.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487559</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361940890</t>
+          <t>https://openalex.org/W4361891689</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487556.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487550</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487556.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487550</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941026</t>
+          <t>https://openalex.org/W4361891718</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487550.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487562</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487550.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487562</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941049</t>
+          <t>https://openalex.org/W4361891776</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487547.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487553</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487547.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487553</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941326</t>
+          <t>https://openalex.org/W4361891798</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487568.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487565</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487568.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487565</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2796,22 +2796,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941437</t>
+          <t>https://openalex.org/W4361933456</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Supplementary Movie (low delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2831,7 +2831,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487553.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22470222.v1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487553.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22470222.v1</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2883,22 +2883,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361941836</t>
+          <t>https://openalex.org/W4361933616</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Supplementary Methods from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487562.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22470228.v1</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487562.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22470228.v1</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -2970,22 +2970,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361942018</t>
+          <t>https://openalex.org/W4361933633</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Supplementary Tables and Figures from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3005,7 +3005,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487559.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22470219.v1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487559.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22470219.v1</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -3067,12 +3067,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361946212</t>
+          <t>https://openalex.org/W4361933905</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Data from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Supplementary Movie (high delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6527469</t>
+          <t>https://doi.org/10.1158/1078-0432.22470225.v1</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6527469</t>
+          <t>https://doi.org/10.1158/1078-0432.22470225.v1</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3154,12 +3154,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361953048</t>
+          <t>https://openalex.org/W4361935689</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Data from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Table S4 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3179,12 +3179,12 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528437.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473188.v1</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528437.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473188.v1</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3231,22 +3231,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361953126</t>
+          <t>https://openalex.org/W4361935696</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Data from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Table S7 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3266,12 +3266,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6527469.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473179.v1</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3281,7 +3281,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6527469.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473179.v1</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3328,12 +3328,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361959007</t>
+          <t>https://openalex.org/W4361935712</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Data from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Table S1 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6532539</t>
+          <t>https://doi.org/10.1158/1078-0432.22473197.v1</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6532539</t>
+          <t>https://doi.org/10.1158/1078-0432.22473197.v1</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361959535</t>
+          <t>https://openalex.org/W4361935961</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Data from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Table S6 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3440,12 +3440,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528437</t>
+          <t>https://doi.org/10.1158/1078-0432.22473182.v1</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6528437</t>
+          <t>https://doi.org/10.1158/1078-0432.22473182.v1</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361962495</t>
+          <t>https://openalex.org/W4361935966</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Table S3 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplemental Table Legend from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3527,7 +3527,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473191.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473200.v1</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>da</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473191.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473200.v1</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3579,7 +3579,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3589,12 +3589,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361962706</t>
+          <t>https://openalex.org/W4361940878</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Table S5 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473185.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487565.v1</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473185.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487565.v1</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -3666,7 +3666,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3676,12 +3676,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361963176</t>
+          <t>https://openalex.org/W4361940890</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Table S2 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473194.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487556.v1</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473194.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22487556.v1</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -3753,22 +3753,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362170416</t>
+          <t>https://openalex.org/W4361941026</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Supplementary Movie (low delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470222</t>
+          <t>https://doi.org/10.1158/1078-0432.22487550.v1</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470222</t>
+          <t>https://doi.org/10.1158/1078-0432.22487550.v1</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3840,7 +3840,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -3850,12 +3850,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407211</t>
+          <t>https://openalex.org/W4361941049</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Table S4 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473188</t>
+          <t>https://doi.org/10.1158/1078-0432.22487547.v1</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3890,7 +3890,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473188</t>
+          <t>https://doi.org/10.1158/1078-0432.22487547.v1</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -3927,7 +3927,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3937,12 +3937,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407440</t>
+          <t>https://openalex.org/W4361941326</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Table S6 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473182</t>
+          <t>https://doi.org/10.1158/1078-0432.22487568.v1</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473182</t>
+          <t>https://doi.org/10.1158/1078-0432.22487568.v1</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4014,7 +4014,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407694</t>
+          <t>https://openalex.org/W4361941437</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Table S1 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473197</t>
+          <t>https://doi.org/10.1158/1078-0432.22487553.v1</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473197</t>
+          <t>https://doi.org/10.1158/1078-0432.22487553.v1</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4101,57 +4101,57 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jordi Rodón, Lipika Goyal, T. Macarulla Mercadé, Masafumi Ikeda, Shunsuke Kondo, Do‐Youn Oh, Li‐Yuan Bai, Makoto Ueno, Antoîne Italiano, Kyriakos P. Papadopoulos, David R. Spigel, Sani H. Kizilbash, Rasha Cosman, Joon Oh Park, Li-Tzong Chen, Tomoya Yokota, Anita Ahmed Turk, Chih‐Yi Liao, Rachna T. Shroff, Anthony B. El-Khoueiry, Taroh Satoh, Antoine Hollebecque, Mitesh J. Borad, Nilofer S. Azad, Kurt A. Jaeckle, Herbert H. F. Loong, Jorge Adeva, Wei Peng Yong, Junjie Zhao, Hui Liu, Anna M. Szpurka, Ivelina Gueorguieva, Kamnesh R. Pradhan, Xiping Xu, James J. Harding</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1MD Anderson Cancer Center, Houston, TX;; 2Massachusetts General Hospital Cancer Center, Boston, MA;; 3Vall d'Hebron University Hospital and Vall d'Hebron Institute of Oncology (VHIO), Barcelona, Spain;; 4National Cancer Center Hospital East, Kashiwa, Japan;; 5National Cancer Center Hospital, Tokyo, Japan;; 6Department of Internal Medicine, Seoul National University College of Medicine, Seoul, Republic of Korea;; 7China Medical University Hospital, Taichung, Taiwan;; 8Department of Gastroenterology, Kanagawa Cancer Center, Kanagawa, Japan;; 9Department of Medical Oncology, Institut Bergonié, Bordeaux, France;; 10START San Antonio, San Antonio, TX;; 11Sarah Cannon Research Institute/Tennessee Oncology, Nashville, TN;; 12Department of Oncology, Mayo Clinic, Rochester, MN;; 13The Kinghorn Cancer Centre, St Vincent's Hospital, Sydney, The University of New South Wales, Sydney, Australia;; 14Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea;; 15National Cheng Kung University Hospital, National Cheng Kung University, Tainan, Taiwan;; 16Division of Gastrointestinal Oncology, Shizuoka Cancer Center, Sunto-gun, Japan;; 17Indiana University School of Medicine, Indianapolis, IN;; 18The University of Chicago Medical Center, Chicago, IL;; 19University of Arizona Cancer Center, Tucson, AZ;; 20University of Southern California Norris Comprehensive Cancer Center, Los Angeles, CA;; 21Department of Medical Oncology, Kinki University School of Medicine, Osaka, Japan;; 22Department of Medical Oncology, Gustave Roussy, Villejuif, France;; 23Department of Oncology, Mayo Clinic Arizona, Scottsdale, AZ;; 24Johns Hopkins Sidney Kimmel Comprehensive Cancer Center, Baltimore, MD;; 25Department of Neurology, Mayo Clinic Florida, Jacksonville, FL;; 26Department of Clinical Oncology, The Chinese University of Hong Kong, Shatin, Hong Kong;; 27Department of Medical Oncology, Hospital Universitario 12 de Octubre, Madrid, Spain;; 28National University Cancer Institute, Singapore, Singapore;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 30Eli Lilly, England, United Kingdom;; 29Loxo@Lilly, Indianapolis, IN;; 29Loxo@Lilly, Indianapolis, IN;; 31David H. Koch Center for Cancer Care at Memorial Sloan Kettering Cancer Center, New York, NY.</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4365513192</t>
+          <t>https://openalex.org/W4361941836</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Abstract CT098: A first-in-human phase 1 study of LY3410738, a covalent inhibitor of mutant IDH, in advanced IDH-mutant cholangiocarcinoma and other solid tumors</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2023-04-14</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-ct098</t>
+          <t>https://doi.org/10.1158/1078-0432.22487562.v1</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1538-7445.am2023-ct098</t>
+          <t>https://doi.org/10.1158/1078-0432.22487562.v1</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4188,57 +4188,57 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andrew H. Ko, Mark M. Zalupski, Raed Moh’d Taiseer Al-Rajabi, Khalid Matin, Deirdre Jill Cohen, Smitha Krishnamurthi, Brent L. Kreider, Jessica A. Box, Caroline M. Emery, Martin G. Teresk, Mary Varterasian, Lee Martin, Anna Groover, Deb Knoerzer, Rachna T. Shroff</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>University of California San Francisco, San Francisco, CA; University of Michigan, Ann Arbor, MI; University of Kansas Medical Center, Kansas, KS; Massey Cancer Center, Virginia Commonwealth University, Richmond, VA; Division of Hematology and Medical Oncology, Icahn School of Medicine at Mount Sinai, New York, NY; Cleveland Clinic, Cleveland, OH; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; Independent Consultant, Ann Arbor Drug Safety, LLC, Ann Arbor, MI; Biomed Valley Discoveries, Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; University of Arizona Cancer Center, Tucson, AZ</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379336702</t>
+          <t>https://openalex.org/W4361942018</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>A phase 2 basket trial of ulixertinib (BVD-523) in combination with hydroxychloroquine in patients with advanced gastrointestinal malignancies harboring MAPK pathway mutations (BVD-523-HCQ).</t>
+          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4174</t>
+          <t>https://doi.org/10.1158/1078-0432.22487559.v1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4174</t>
+          <t>https://doi.org/10.1158/1078-0432.22487559.v1</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4275,27 +4275,27 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382243853</t>
+          <t>https://openalex.org/W4361946212</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Data from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4310,7 +4310,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6527469</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4325,7 +4325,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6527469</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4362,27 +4362,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382244076</t>
+          <t>https://openalex.org/W4361953048</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Data from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23586793</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6528437.v1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4412,7 +4412,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23586793</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6528437.v1</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -4449,27 +4449,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382244083</t>
+          <t>https://openalex.org/W4361953126</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Data from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6527469.v1</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6527469.v1</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4536,27 +4536,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382245968</t>
+          <t>https://openalex.org/W4361959007</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Data from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2023-06-27</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4571,12 +4571,12 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23586793.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6532539</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -4586,7 +4586,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23586793.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6532539</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -4623,42 +4623,42 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Jennifer J. Knox, I. Bazin, Do Youn Oh, O. Zubkov, V. Breder, Li‐Yuan Bai, Alan Christie, Mairéad G. McNamara, Lipika Goyal, David Cosgrove, Christoph Springfeld, Katrin Marie Sjoquist, J. Park, Helena Verdaguer, Chiara Braconi, Paul Ross, Aimery de Gramont, Rachna T. Shroff, John Zalcberg, Daniel H. Palmer, Juan W. Valle</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Princess Margaret Cancer Centre, Toronto, Canada; NN Blokhin Russian Cancer Research Center, Moscow, Russia; Seoul National University College of Medicine, Seoul, South Korea; Kyiv City Clinical Oncology Center, Kyiv, Ukraine; NN Blokhin Russian Cancer Research Center, Chemotherapy Unit, Moscow, Russia; China Medical University Hospital, Taichung, Taiwan; Edinburgh Cancer Centre, Western General Hospital, Edinburgh, United Kingdom; The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom; Stanford Cancer Center, Palo Alto, United States; Vancouver Cancer Center, Compass Oncology, Vancouver, United States; Universitaetsklinikum Heidelberg, Heidelberg, Germany; Cancer Care Centre, St George Hospital, Kogarah &amp; NHMRC Clinical Trials Centre, Sydney, Australia; Division of Hematology-Oncology, Department of Medicine, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, South Korea; Hospital General de Granollers, Barcelona, Spain; University of Glasgow, Glasgow, United Kingdom; Guy's Hospital, London, England, United Kingdom; Franco-British Institute, Levallois-Perret, France; University of Arizona Cancer Center, Tucson, United States; Alfred Health and School of Public Health Monash University, Melbourne, Australia; Cancer Research United Kingdom Liverpool Experimental Cancer Medicine Centre and Clatterbridge Cancer Centre, Liverpool, United Kingdom; The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382807504</t>
+          <t>https://openalex.org/W4361959535</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>O-2 Phase III study of NUC-1031 + cisplatin vs gemcitabine + cisplatin for first-line treatment of patients with advanced biliary tract cancer (NuTide:121)</t>
+          <t>Data from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.017</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6528437</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4668,12 +4668,12 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.017</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6528437</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -4710,27 +4710,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384071504</t>
+          <t>https://openalex.org/W4361962495</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Table S3 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23668923</t>
+          <t>https://doi.org/10.1158/1078-0432.22473191.v1</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23668923</t>
+          <t>https://doi.org/10.1158/1078-0432.22473191.v1</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4797,27 +4797,27 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384071588</t>
+          <t>https://openalex.org/W4361962706</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Table S5 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4832,12 +4832,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v2</t>
+          <t>https://doi.org/10.1158/1078-0432.22473185.v1</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v2</t>
+          <t>https://doi.org/10.1158/1078-0432.22473185.v1</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -4884,27 +4884,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384071663</t>
+          <t>https://openalex.org/W4361963176</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Table S2 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2023-07-12</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23668923.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473194.v1</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -4934,7 +4934,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.23668923.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473194.v1</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -4971,57 +4971,57 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Rikita Hatia, Madhulika Eluri, Ernest T. Hawk, Akram Shalaby, Emine Karataş, A. M. Shalaby, Ahmed Abdelhakeem, Reham Abdel-Wahab, Ping Chang, Asif Rashid, Prasun K. Jalal, Christopher I. Amos, Younghun Han, Tannaz Armaghany, Rachna T. Shroff, Donghui Li, Milind Javle, Manal M. Hassan</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1Department of Epidemiology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 3Division of Cancer Prevention &amp; Population Sciences, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 4Department of Pathology, Case Western Reserve University, Cleveland, Ohio.; 5Department of Internal Medicine, Jacobi Medical Center, Albert Einstein College of Medicine, Bronx, New York.; 6Department of Radiation Oncology, Robert Wood Johnson University Hospital, New Brunswick, New Jersey.; 7Department of Internal Medicine, Baptist Hospital of Southeast Texas, Beaumont, Texas.; 8Department of Melanoma Medicine Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 9Clinical Oncology Department, Faculty of Medicine, Assiut University, Assiut, Egypt.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 10Department of Pathology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 11Department of Gastroenterology and Hepatology, Baylor College of Medicine, Houston, Texas.; 12Institute for Clinical and Translational Research, Baylor College of Medicine, Houston, Texas.; 12Institute for Clinical and Translational Research, Baylor College of Medicine, Houston, Texas.; 13Division of Hematology &amp; Oncology, Baylor College of Medicine, Houston, Texas.; 14Division of Hematology/Oncology, University of Arizona Cancer Center, Tucson, Arizona.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Department of Epidemiology, The University of Texas MD Anderson Cancer Center, Houston, Texas.</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385563388</t>
+          <t>https://openalex.org/W4362166390</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Independent of Primary Sclerosing Cholangitis and Cirrhosis, Early Adulthood Obesity Is Associated with Cholangiocarcinoma</t>
+          <t>Supplementary Methods from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2023-08-04</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Cancer Epidemiology, Biomarkers &amp; Prevention</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>American Association for Cancer Research</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1055-9965.epi-23-0388</t>
+          <t>https://doi.org/10.1158/1078-0432.22470228</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -5041,12 +5041,12 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37540502</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1055-9965.epi-23-0388</t>
+          <t>https://doi.org/10.1158/1078-0432.22470228</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -5058,57 +5058,57 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Leontios Pappas, Islam Baiev, Stephanie Reyes, Andrea Grace Bocobo, Apurva Jain, Kristen Spencer, Tri Minh Le, Osama E. Rahma, Jordan Maurer, J. J. Stanton, Karen Zhang, Anaemy Danner De Armas, Thomas DeLeon, Marc Roth, Mary Linton B. Peters, A. X. Zhu, Kylie Boyhen, Christine VanCott, Tushar Patel, Lewis R. Roberts, Stacie Lindsey, Nora Horick, Jochen K. Lennerz, A. John Iafrate, Laura Williams Goff, Kabir Mody, Mitesh J. Borad, Rachna T. Shroff, Milind Javle, Robin K. Kelley, Lipika Goyal</t>
+          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Harvard Medical School, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Duke University School of Medicine, Durham, NC; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Department of Medicine, NYU Langone Health Perlmutter Cancer Center, NYU School of Medicine, New York, NY; Department of Medicine, University of Virginia Comprehensive Cancer Center, Charlottesville, VA; Department of Medical Oncology, Dana-Farber Cancer Institute, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Division of Hematology/Oncology, Mayo Clinic, Scottsdale, AZ; Department of Medical Oncology, St Luke's Cancer Institute, Kansas City, MO; Department of Medicine, Beth Israel Deaconess Medical Center, Boston, MA; I-MAB Biopharma, Shanghai, China; Jiahui International Cancer Center, Jiahui Health, Shanghai, China; Yale University, New Haven, CT; Department of Medicine, HCA Florida South Tampa Hospital, Tampa, FL; Department of Transplantation, Mayo Clinic, Jacksonville, FL; Division of Gastroenterology and Hepatology, Mayo Clinic, Rochester, MN; The Cholangiocarcinoma Foundation, Herriman, UT; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Center for Integrated Diagnostics, Department of Pathology, Massachusetts General Hospital/Harvard Medical School, Boston, MA; Center for Integrated Diagnostics, Department of Pathology, Massachusetts General Hospital/Harvard Medical School, Boston, MA; Department of Medicine, Vanderbilt-Ingram Cancer Center, Nashville, TN; Division of Hematology/Oncology, Mayo Clinic, Jacksonville, FL; Division of Hematology/Oncology, Mayo Clinic, Scottsdale, AZ; University of Arizona Cancer Center, University of Arizona, Tucson, AZ; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Department of Medicine, Division of Oncology, Stanford Cancer Center, Palo Alto, CA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Harvard Medical School, Boston, MA</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385727233</t>
+          <t>https://openalex.org/W4362170416</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>The Cholangiocarcinoma in the Young (CITY) Study: Tumor Biology, Treatment Patterns, and Survival Outcomes in Adolescent Young Adults With Cholangiocarcinoma</t>
+          <t>Supplementary Movie (low delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>JCO Precision Oncology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/po.22.00594</t>
+          <t>https://doi.org/10.1158/1078-0432.22470222</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>cc-by-nc-nd</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -5128,12 +5128,12 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37561981</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/po.22.00594</t>
+          <t>https://doi.org/10.1158/1078-0432.22470222</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5145,27 +5145,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386377327</t>
+          <t>https://openalex.org/W4362407208</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Table S3 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.24071544</t>
+          <t>https://doi.org/10.1158/1078-0432.22473191</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.24071544</t>
+          <t>https://doi.org/10.1158/1078-0432.22473191</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5232,27 +5232,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386377627</t>
+          <t>https://openalex.org/W4362407211</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Table S4 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -5267,12 +5267,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.24071544.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473188</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.24071544.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.22473188</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5319,27 +5319,27 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido‐Laguna</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386377658</t>
+          <t>https://openalex.org/W4362407375</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
+          <t>Table S5 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5354,12 +5354,12 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v3</t>
+          <t>https://doi.org/10.1158/1078-0432.22473185</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6715507.v3</t>
+          <t>https://doi.org/10.1158/1078-0432.22473185</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
@@ -5406,57 +5406,57 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Shamar Young, Jack Hannallah, Daniel W. Goldberg, Mohammad Khreiss, Rachna T. Shroff, Junaid Arshad, Aaron J. Scott, Gregory Woodhead</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Surgical Oncology, Department of Surgery, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4391182888</t>
+          <t>https://openalex.org/W4362407440</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Liver-Directed Therapy Combined with Systemic Therapy: Current Status and Future Directions</t>
+          <t>Table S6 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Seminars in Interventional Radiology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Thieme Medical Publishers (Germany)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1777711</t>
+          <t>https://doi.org/10.1158/1078-0432.22473182</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -5476,12 +5476,12 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/38274222</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1055/s-0043-1777711</t>
+          <t>https://doi.org/10.1158/1078-0432.22473182</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5493,42 +5493,42 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ifeanyichukwu Ogobuiro, Yasmine Baca, Jennifer R. Ribeiro, Phillip Walker, Gregory C. Wilson, Pat Gulhati, John L. Marshall, Rachna T. Shroff, David Speltzer, Matthew James Oberley, Daniel E. Abbott, Hong Joo Kim, David A. Kooby, Shishir K. Maithel, Syed A. Ahmad, Nipun B. Merchant, Joanne Xiu, Peter J. Hosein, Jashodeep Datta</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; University of Cincinnati Medical Center, Cincinnati, OH; Robert Wood Johnson Medical School, The Cancer Institute of NJ, New Brunswick, NJ; Georgetown University; University of Arizona; Caris Life Sciences, Inc.; Caris Life Sciences, Inc.; University of Wisconsin Carbone Cancer Center, Madison, WI; The University of North Carolina at Chapel Hill, Chapel Hill, NC; Emory University; Emory University; University of Cincinnati Medical Center, Cincinnati, OH; Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Inc.; University of Miami; Department of Surgery &amp; Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361288397</t>
+          <t>https://openalex.org/W4362407661</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Multi-omic characterization reveals a distinct molecular landscape in young-onset pancreatic cancer</t>
+          <t>Supplemental Table Legend from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2023-03-29</t>
+          <t>2023-03-31</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>medRxiv (Cold Spring Harbor Laboratory)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Cold Spring Harbor Laboratory</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.03.28.23287894</t>
+          <t>https://doi.org/10.1158/1078-0432.22473200</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>da</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -5563,12 +5563,12 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37034762</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1101/2023.03.28.23287894</t>
+          <t>https://doi.org/10.1158/1078-0432.22473200</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5580,22 +5580,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361887145</t>
+          <t>https://openalex.org/W4362407694</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Supplementary Tables and Figures from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Table S1 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470219</t>
+          <t>https://doi.org/10.1158/1078-0432.22473197</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470219</t>
+          <t>https://doi.org/10.1158/1078-0432.22473197</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -5667,22 +5667,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361887178</t>
+          <t>https://openalex.org/W4362407921</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Supplementary Movie (high delta) from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Table S2 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470225</t>
+          <t>https://doi.org/10.1158/1078-0432.22473194</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470225</t>
+          <t>https://doi.org/10.1158/1078-0432.22473194</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -5754,57 +5754,57 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Andrew H. Ko, Mark M. Zalupski, Raed Al‐Rajabi, Khalid Matin, Deirdre Jill Cohen, Smitha Krishnamurthi, Brent L. Kreider, Jessica A. Box, Caroline M. Emery, Martin G. Teresk, Mary Varterasian, Lee Martin, Anna Groover, Deb Knoerzer, Rachna T. Shroff</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>University of California San Francisco, San Francisco, CA; University of Michigan, Ann Arbor, MI; University of Kansas Medical Center, Kansas, KS; Massey Cancer Center, Virginia Commonwealth University, Richmond, VA; Division of Hematology and Medical Oncology, Icahn School of Medicine at Mount Sinai, New York, NY; Cleveland Clinic, Cleveland, OH; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; Independent Consultant, Ann Arbor Drug Safety, LLC, Ann Arbor, MI; Biomed Valley Discoveries, Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; BioMed Valley Discoveries, Inc., Kansas City, MO; University of Arizona Cancer Center, Tucson, AZ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891603</t>
+          <t>https://openalex.org/W4379336702</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Supplementary Figure from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>A phase 2 basket trial of ulixertinib (BVD-523) in combination with hydroxychloroquine in patients with advanced gastrointestinal malignancies harboring MAPK pathway mutations (BVD-523-HCQ).</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Journal of Clinical Oncology</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487568</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4174</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487568</t>
+          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.tps4174</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -5841,27 +5841,27 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361891718</t>
+          <t>https://openalex.org/W4382243853</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Supplementary Table from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5876,12 +5876,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487562</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v1</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -5891,7 +5891,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -5916,7 +5916,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22487562</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v1</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -5928,27 +5928,27 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H.G. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361933633</t>
+          <t>https://openalex.org/W4382244076</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Supplementary Tables and Figures from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5963,7 +5963,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470219.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.23586793</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6003,7 +6003,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470219.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.23586793</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -6015,27 +6015,27 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935696</t>
+          <t>https://openalex.org/W4382244083</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Table S7 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473179.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -6065,7 +6065,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473179.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -6102,27 +6102,27 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935712</t>
+          <t>https://openalex.org/W4382245968</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Table S1 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473197.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.23586793.v1</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473197.v1</t>
+          <t>https://doi.org/10.1158/1078-0432.23586793.v1</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -6189,52 +6189,52 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Juan W. Valle, Ghassan K. Abou‐Alfa, Robin Kate Kelley, Maeve A. Lowery, Rachna T. Shroff, Yunyi Bian, Gaëlle Saint‐Hilary, Hui Liu, Teng Zhang, Hua Zhang, Camelia Gliser, Arndt Vogel, Milind Javle</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom; Department of Medicine, Memorial Sloan Kettering Cancer Center, Cornell University and Weill Medical College, Cornell University, New York, United States; Helen Diller Family Comprehensive Cancer Center, University of California, San Francisco, United States; Trinity St. James Cancer Institute, Dublin, Ireland; University of Arizona Cancer Center, Tucson, United States; Servier Pharmaceuticals, Boston, United States; Saryga, Tournus, France; Servier Pharmaceuticals, Boston, United States; Department of Gastrointestinal Medical Oncology, UT MD Anderson Cancer Center, Houston, United States; Servier Pharmaceuticals, Boston, United States; Servier Pharmaceuticals, Boston, United States; Hannover Medical School, Hannover, Germany; Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, United States</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935961</t>
+          <t>https://openalex.org/W4382799159</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Table S6 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>SO-2 Quantitative risk-benefit assessment of ivosidenib compared to placebo in patients with IDH1-mutated intrahepatic cholangiocarcinoma: Phase 3 ClarIDHy trial</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473182.v1</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.474</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473182.v1</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.474</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -6276,52 +6276,52 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>James J. Harding, Masafumi Ikeda, Lipika Goyal, Jordi Rodón, Li‐Yuan Bai, Do‐Youn Oh, J. Park, Li Fen Chen, Makoto Ueno, Chih‐Yi Liao, Shu Kondo, Rasha Cosman, Tomoya Yokota, Rachna T. Shroff, Taroh Satoh, Lola‐Jade Palmieri, Antoine Hollebecque, Jorge Adeva, Mark H. Bender, H. Liu, Teresa Macarulla</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Memorial Sloan Kettering Cancer Center, New York, United States; National Cancer Center Hospital East, Kashiwa, Japan; Stanford Cancer Center, Palo Alto, United States; The University of Texas MD Anderson Cancer Center, Houston, United States; China Medical University Hospital, Taichung, Taiwan; Seoul National University College of Medicine, Seoul, South Korea; Division of Hematology-Oncology, Department of Medicine, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, South Korea; Kaohsiung Medical University Hospital, Kaohsiung, Taiwan; Department of Gastroenterology, Kanagawa Cancer Center, Kanagawa, Japan; The University of Chicago Medical Center, Chicago, United States; National Cancer Center, Tokyo, Japan; The Kinghorn Cancer Centre, St Vincent's Hospital, Darlinghurst, Australia; Shizuoka Cancer Center, Nagaizumi, Japan; University of Arizona Cancer Center, Tucson, United States; Department of Medical Oncology, Kinki University School of Medicine, Osaka, Japan; Department of Medical Oncology, Institut Bergonié, Bordeaux, France; Department of Medical Oncology, Gustave Roussy, Villejuif, France; Hospital 12 de Octubre, Madrid, Spain; Eli Lilly and Company, Indianapolis, United States; Loxo@Lilly, Indianapolis, United States; Vall d’Hebron Institute of Oncology (VHIO), Vall d’Hebron University Hospital, Barcelona, Spain</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361935966</t>
+          <t>https://openalex.org/W4382806768</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Supplemental Table Legend from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>SO-1 A first-in-human phase 1 study of LY3410738, a covalent inhibitor of mutant IDH1 and IDH2, as monotherapy and in combination with cisplatin and gemcitabine in advanced IDH-mutant cholangiocarcinoma</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473200.v1</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.473</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473200.v1</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.473</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -6363,42 +6363,42 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sun Young Lee, Rachna T. Shroff, Shalini Makawita, Lianchun Xiao, Anaemy Danner De Armas, Priya Bhosale, Kavitha Reddy, Ahmed Shalaby, Kanwal Raghav, Shubham Pant, Robert A. Wolff, Milind Javle</t>
+          <t>Jennifer J. Knox, I. Bazin, Do Youn Oh, O. Zubkov, V. Breder, Li‐Yuan Bai, Alan Christie, Mairéad G. McNamara, Lipika Goyal, David Cosgrove, Christoph Springfeld, Katrin Marie Sjoquist, J. Park, Helena Verdaguer, Chiara Braconi, Paul Ross, Aimery de Gramont, Rachna T. Shroff, John Zalcberg, Daniel H. Palmer, Juan W. Valle</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Princess Margaret Cancer Centre, Toronto, Canada; NN Blokhin Russian Cancer Research Center, Moscow, Russia; Seoul National University College of Medicine, Seoul, South Korea; Kyiv City Clinical Oncology Center, Kyiv, Ukraine; NN Blokhin Russian Cancer Research Center, Chemotherapy Unit, Moscow, Russia; China Medical University Hospital, Taichung, Taiwan; Edinburgh Cancer Centre, Western General Hospital, Edinburgh, United Kingdom; The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom; Stanford Cancer Center, Palo Alto, United States; Vancouver Cancer Center, Compass Oncology, Vancouver, United States; Universitaetsklinikum Heidelberg, Heidelberg, Germany; Cancer Care Centre, St George Hospital, Kogarah &amp; NHMRC Clinical Trials Centre, Sydney, Australia; Division of Hematology-Oncology, Department of Medicine, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, South Korea; Hospital General de Granollers, Barcelona, Spain; University of Glasgow, Glasgow, United Kingdom; Guy's Hospital, London, England, United Kingdom; Franco-British Institute, Levallois-Perret, France; University of Arizona Cancer Center, Tucson, United States; Alfred Health and School of Public Health Monash University, Melbourne, Australia; Cancer Research United Kingdom Liverpool Experimental Cancer Medicine Centre and Clatterbridge Cancer Centre, Liverpool, United Kingdom; The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361954118</t>
+          <t>https://openalex.org/W4382807504</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Data from Phase II Study of Ramucirumab in Advanced Biliary Tract Cancer Previously Treated By Gemcitabine-Based Chemotherapy</t>
+          <t>O-2 Phase III study of NUC-1031 + cisplatin vs gemcitabine + cisplatin for first-line treatment of patients with advanced biliary tract cancer (NuTide:121)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Annals of Oncology</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6532539.v1</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.017</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -6438,7 +6438,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.c.6532539.v1</t>
+          <t>https://doi.org/10.1016/j.annonc.2023.04.017</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -6450,27 +6450,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Eugene J. Koay, Yeon-Ju Lee, Vittorio Cristini, John Lowengrub, Ya’an Kang, F. Anthony San Lucas, Brian P. Hobbs, Rong Ye, Dalia Elganainy, Muayad Almahariq, Ahmed Amer, Deyali Chatterjee, Huaming Yan, Peter C. Park, Mayrim V. Rios Perez, Dali Li, Naveen Garg, Kim A. Reiss, Sirong Yu, Anil K. Chauhan, Mohamed Zaid, Newsha Nikzad, Robert A. Wolff, Milind Javle, Gauri R. Varadhachary, Rachna T. Shroff, Prajnan Das, Jeffrey E. Lee, Mauro Ferrari, Anirban Maitra, Cullen M. Taniguchi, Michael P. Kim, Christopher H. Crane, Matthew H. Katz, Huamin Wang, Priya Bhosale, Eric P. Tamm, Jason B. Fleming</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362166390</t>
+          <t>https://openalex.org/W4384071504</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Supplementary Methods from A Visually Apparent and Quantifiable CT Imaging Feature Identifies Biophysical Subtypes of Pancreatic Ductal Adenocarcinoma</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470228</t>
+          <t>https://doi.org/10.1158/1078-0432.23668923</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6500,7 +6500,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22470228</t>
+          <t>https://doi.org/10.1158/1078-0432.23668923</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
@@ -6537,27 +6537,27 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407208</t>
+          <t>https://openalex.org/W4384071588</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Table S3 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6572,12 +6572,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473191</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v2</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6587,7 +6587,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6612,7 +6612,7 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473191</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v2</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
@@ -6624,27 +6624,27 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407375</t>
+          <t>https://openalex.org/W4384071663</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Table S5 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-07-12</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6659,7 +6659,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473185</t>
+          <t>https://doi.org/10.1158/1078-0432.23668923.v1</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6674,7 +6674,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>green</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6699,7 +6699,7 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473185</t>
+          <t>https://doi.org/10.1158/1078-0432.23668923.v1</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
@@ -6711,42 +6711,42 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Rikita Hatia, Madhulika Eluri, Ernest T. Hawk, Akram Shalaby, Emine Karataş, A. M. Shalaby, Ahmed Abdelhakeem, Reham Abdel-Wahab, Ping Chang, Asif Rashid, Prasun K. Jalal, Christopher I. Amos, Younghun Han, Tannaz Armaghany, Rachna T. Shroff, Donghui Li, Milind Javle, Manal M. Hassan</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>1Department of Epidemiology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 3Division of Cancer Prevention &amp; Population Sciences, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 4Department of Pathology, Case Western Reserve University, Cleveland, Ohio.; 5Department of Internal Medicine, Jacobi Medical Center, Albert Einstein College of Medicine, Bronx, New York.; 6Department of Radiation Oncology, Robert Wood Johnson University Hospital, New Brunswick, New Jersey.; 7Department of Internal Medicine, Baptist Hospital of Southeast Texas, Beaumont, Texas.; 8Department of Melanoma Medicine Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 9Clinical Oncology Department, Faculty of Medicine, Assiut University, Assiut, Egypt.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 10Department of Pathology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 11Department of Gastroenterology and Hepatology, Baylor College of Medicine, Houston, Texas.; 12Institute for Clinical and Translational Research, Baylor College of Medicine, Houston, Texas.; 12Institute for Clinical and Translational Research, Baylor College of Medicine, Houston, Texas.; 13Division of Hematology &amp; Oncology, Baylor College of Medicine, Houston, Texas.; 14Division of Hematology/Oncology, University of Arizona Cancer Center, Tucson, Arizona.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 2Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, Texas.; 1Department of Epidemiology, The University of Texas MD Anderson Cancer Center, Houston, Texas.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407661</t>
+          <t>https://openalex.org/W4385563388</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Supplemental Table Legend from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>Independent of Primary Sclerosing Cholangitis and Cirrhosis, Early Adulthood Obesity Is Associated with Cholangiocarcinoma</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-08-04</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Cancer Epidemiology, Biomarkers &amp; Prevention</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Association for Cancer Research</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473200</t>
+          <t>https://doi.org/10.1158/1055-9965.epi-23-0388</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6756,17 +6756,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>green</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>da</t>
+          <t>en</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -6781,12 +6781,12 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37540502</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473200</t>
+          <t>https://doi.org/10.1158/1055-9965.epi-23-0388</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -6798,57 +6798,57 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Jennifer B. Goldstein, Li Zhao, Xuemei Wang, Yael Ghelman, Michael J. Overman, Milind M. Javle, Rachna T. Shroff, Gauri R. Varadhachary, Robert A. Wolff, Florencia McAllister, Andrew Futreal, David R. Fogelman</t>
+          <t>Leontios Pappas, Islam Baiev, Stephanie Reyes, Andrea Grace Bocobo, Apurva Jain, Kristen Spencer, Tri Minh Le, Osama E. Rahma, Jordan Maurer, J. J. Stanton, Karen Zhang, Anaemy Danner De Armas, Thomas DeLeon, Marc Roth, Mary Linton B. Peters, A. X. Zhu, Kylie Boyhen, Christine VanCott, Tushar Patel, Lewis R. Roberts, Stacie Lindsey, Nora Horick, Jochen K. Lennerz, A. John Iafrate, Laura Williams Goff, Kabir Mody, Mitesh J. Borad, Rachna T. Shroff, Milind Javle, Robin K. Kelley, Lipika Goyal</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; </t>
+          <t>Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Harvard Medical School, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Duke University School of Medicine, Durham, NC; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Department of Medicine, NYU Langone Health Perlmutter Cancer Center, NYU School of Medicine, New York, NY; Department of Medicine, University of Virginia Comprehensive Cancer Center, Charlottesville, VA; Department of Medical Oncology, Dana-Farber Cancer Institute, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Division of Hematology/Oncology, Mayo Clinic, Scottsdale, AZ; Department of Medical Oncology, St Luke's Cancer Institute, Kansas City, MO; Department of Medicine, Beth Israel Deaconess Medical Center, Boston, MA; I-MAB Biopharma, Shanghai, China; Jiahui International Cancer Center, Jiahui Health, Shanghai, China; Yale University, New Haven, CT; Department of Medicine, HCA Florida South Tampa Hospital, Tampa, FL; Department of Transplantation, Mayo Clinic, Jacksonville, FL; Division of Gastroenterology and Hepatology, Mayo Clinic, Rochester, MN; The Cholangiocarcinoma Foundation, Herriman, UT; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Center for Integrated Diagnostics, Department of Pathology, Massachusetts General Hospital/Harvard Medical School, Boston, MA; Center for Integrated Diagnostics, Department of Pathology, Massachusetts General Hospital/Harvard Medical School, Boston, MA; Department of Medicine, Vanderbilt-Ingram Cancer Center, Nashville, TN; Division of Hematology/Oncology, Mayo Clinic, Jacksonville, FL; Division of Hematology/Oncology, Mayo Clinic, Scottsdale, AZ; University of Arizona Cancer Center, University of Arizona, Tucson, AZ; Division of Cancer Medicine, Department of Gastrointestinal Medical Oncology, The University of Texas MD Anderson Cancer Center, Houston, TX; Helen Diller Family Comprehensive Cancer Center, University of California San Francisco, San Francisco, CA; Department of Medicine, Division of Oncology, Stanford Cancer Center, Palo Alto, CA; Department of Medicine, Massachusetts General Hospital Cancer Center, Boston, MA; Harvard Medical School, Boston, MA</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362407921</t>
+          <t>https://openalex.org/W4385727233</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Table S2 from Germline DNA Sequencing Reveals Novel Mutations Predictive of Overall Survival in a Cohort of Patients with Pancreatic Cancer</t>
+          <t>The Cholangiocarcinoma in the Young (CITY) Study: Tumor Biology, Treatment Patterns, and Survival Outcomes in Adolescent Young Adults With Cholangiocarcinoma</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2023-03-31</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>JCO Precision Oncology</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473194</t>
+          <t>https://doi.org/10.1200/po.22.00594</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>submittedVersion</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>hybrid</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -6868,12 +6868,12 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37561981</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1158/1078-0432.22473194</t>
+          <t>https://doi.org/10.1200/po.22.00594</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -6885,57 +6885,57 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Harshabad Singh, Kevin S. Kapner, Joanne Xiu, Matthew James Oberley, Alex Farrell, Jimmy A. Guo, Rishi Surana, Kimberly Perez, James M. Cleary, Srivatsan Raghavan, Benjamin A. Weinberg, Michael J. Pishvaian, Rachna T. Shroff, Sanjay Goel, Stephanie K. Dougan, Jonathan A. Nowak, David Spetzler, George W. Sledge, Brian M. Wolpin, Andrew J. Aguirre</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Dana-Farber Cancer Institute, Brookline, MA; Dana-Farber Cancer Institute, Boston, MA; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Boston, MA; Dana-Farber Cancer Institute, Cambridge, MA; Georgetown University Medical Center, Washington, DC; Johns Hopkins University School of Medicine, Washington, DC; University of Arizona Cancer Center, Tucson, AZ; Rutgers Cancer Institute of New Jersey, New Brunswick, NJ; Dana-Farber Cancer Institute, Boston, MA; Brigham and Women's Hospital, Boston, MA; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Dana-Farber Cancer Institute Gastrointestinal Cancer Center, Boston, MA; Dana-Farber Cancer Institute, Boston, MA</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379333365</t>
+          <t>https://openalex.org/W4386377327</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Clinical genomic implications of transcriptional subtypes in pancreatic cancer.</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Journal of Clinical Oncology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4145</t>
+          <t>https://doi.org/10.1158/1078-0432.24071544</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>bronze</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/jco.2023.41.16_suppl.4145</t>
+          <t>https://doi.org/10.1158/1078-0432.24071544</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -6972,52 +6972,52 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Juan W. Valle, Ghassan K. Abou‐Alfa, Robin Kate Kelley, Maeve A. Lowery, Rachna T. Shroff, Yunyi Bian, Gaëlle Saint‐Hilary, Hui Liu, Teng Zhang, Hua Zhang, Camelia Gliser, Arndt Vogel, Milind Javle</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>The University of Manchester, NHS Foundation Trust, Manchester, United Kingdom; Department of Medicine, Memorial Sloan Kettering Cancer Center, Cornell University and Weill Medical College, Cornell University, New York, United States; Helen Diller Family Comprehensive Cancer Center, University of California, San Francisco, United States; Trinity St. James Cancer Institute, Dublin, Ireland; University of Arizona Cancer Center, Tucson, United States; Servier Pharmaceuticals, Boston, United States; Saryga, Tournus, France; Servier Pharmaceuticals, Boston, United States; Department of Gastrointestinal Medical Oncology, UT MD Anderson Cancer Center, Houston, United States; Servier Pharmaceuticals, Boston, United States; Servier Pharmaceuticals, Boston, United States; Hannover Medical School, Hannover, Germany; Department of Gastrointestinal Medical Oncology, University of Texas MD Anderson Cancer Center, Houston, United States</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382799159</t>
+          <t>https://openalex.org/W4386377627</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SO-2 Quantitative risk-benefit assessment of ivosidenib compared to placebo in patients with IDH1-mutated intrahepatic cholangiocarcinoma: Phase 3 ClarIDHy trial</t>
+          <t>Supplementary Data 1 from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.474</t>
+          <t>https://doi.org/10.1158/1078-0432.24071544.v1</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.474</t>
+          <t>https://doi.org/10.1158/1078-0432.24071544.v1</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
@@ -7059,42 +7059,42 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>James J. Harding, Masafumi Ikeda, Lipika Goyal, Jordi Rodón, Li‐Yuan Bai, Do‐Youn Oh, J. Park, Li Fen Chen, Makoto Ueno, Chih‐Yi Liao, Shu Kondo, Rasha Cosman, Tomoya Yokota, Rachna T. Shroff, Taroh Satoh, Lola‐Jade Palmieri, Antoine Hollebecque, Jorge Adeva, Mark H. Bender, H. Liu, Teresa Macarulla</t>
+          <t>Vaia Florou, Andrew Elliott, Matthew H. Bailey, David Stone, Kajsa E. Affolter, Heloisa P. Soares, Chris Nevala-Plagemann, Courtney L. Scaife, Phillip Walker, W. Michael Korn, Emil Lou, Rachna T. Shroff, Peter J. Hosein, Ignacio Garrido–Laguna</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Memorial Sloan Kettering Cancer Center, New York, United States; National Cancer Center Hospital East, Kashiwa, Japan; Stanford Cancer Center, Palo Alto, United States; The University of Texas MD Anderson Cancer Center, Houston, United States; China Medical University Hospital, Taichung, Taiwan; Seoul National University College of Medicine, Seoul, South Korea; Division of Hematology-Oncology, Department of Medicine, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, South Korea; Kaohsiung Medical University Hospital, Kaohsiung, Taiwan; Department of Gastroenterology, Kanagawa Cancer Center, Kanagawa, Japan; The University of Chicago Medical Center, Chicago, United States; National Cancer Center, Tokyo, Japan; The Kinghorn Cancer Centre, St Vincent's Hospital, Darlinghurst, Australia; Shizuoka Cancer Center, Nagaizumi, Japan; University of Arizona Cancer Center, Tucson, United States; Department of Medical Oncology, Kinki University School of Medicine, Osaka, Japan; Department of Medical Oncology, Institut Bergonié, Bordeaux, France; Department of Medical Oncology, Gustave Roussy, Villejuif, France; Hospital 12 de Octubre, Madrid, Spain; Eli Lilly and Company, Indianapolis, United States; Loxo@Lilly, Indianapolis, United States; Vall d’Hebron Institute of Oncology (VHIO), Vall d’Hebron University Hospital, Barcelona, Spain</t>
+          <t xml:space="preserve">; ; ; ; ; ; ; ; ; ; ; ; ; </t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4382806768</t>
+          <t>https://openalex.org/W4386377658</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SO-1 A first-in-human phase 1 study of LY3410738, a covalent inhibitor of mutant IDH1 and IDH2, as monotherapy and in combination with cisplatin and gemcitabine in advanced IDH-mutant cholangiocarcinoma</t>
+          <t>Data from Comparative Genomic Analysis of Pancreatic Acinar Cell Carcinoma (PACC) and Pancreatic Ductal Adenocarcinoma (PDAC) Unveils New Actionable Genomic Aberrations in PACC</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Annals of Oncology</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.473</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v3</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7104,12 +7104,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>submittedVersion</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>bronze</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -7134,7 +7134,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.annonc.2023.04.473</t>
+          <t>https://doi.org/10.1158/1078-0432.c.6715507.v3</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -7146,57 +7146,57 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ifeanyichukwu Ogobuiro, Yasmine Baca, Jennifer R. Ribeiro, Phillip Walker, Gregory C. Wilson, Pat Gulhati, John L. Marshall, Rachna T. Shroff, David Spetzler, Matthew J. Oberley, Daniel E. Abbott, Hee Jin Kim, David A. Kooby, Shishir K. Maithel, Syed A. Ahmad, Nipun B. Merchant, Joanne Xiu, Peter J. Hosein, Jashodeep Datta</t>
+          <t>Shamar Young, Jack Hannallah, Daniel W. Goldberg, Mohammad Khreiss, Rachna T. Shroff, Junaid Arshad, Aaron J. Scott, Gregory Woodhead</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; Caris Life Sciences, Phoenix, AZ; University of Cincinnati Medical Center, Cincinnati, OH; Robert Wood Johnson Medical School, The Cancer Institute of NJ, New Brunswick, NJ; Georgetown University, Washington, DC; University of Arizona Cancer Center, Tucson, AZ; Caris Life Sciences, Irving, TX; Caris Life Sciences, Irving, TX; University of Wisconsin Carbone Cancer Center, Madison, WI; The University of North Carolina at Chapel Hill, Chapel Hill, NC; Winship Cancer Institute, Emory University, Atlanta, GA; Winship Cancer Institute, Emory University, Atlanta, GA; University of Cincinnati Medical Center, Cincinnati, OH; Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Caris Life Sciences, Phoenix, AZ; Department of Medicine, University of Miami Leonard M. Miller School of Medicine, Miami, FL; Department of Surgery, Sylvester Comprehensive Cancer Center, University of Miami Leonard M. Miller School of Medicine, Miami, FL</t>
+          <t>Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona; Division of Surgical Oncology, Department of Surgery, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Hematology and Oncology, Department of Medicine, University of Arizona, Tucson, Arizona; Division of Interventional Radiology, Department of Medical Imaging, University of Arizona, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4388521843</t>
+          <t>https://openalex.org/W4391182888</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Multiomic Characterization Reveals a Distinct Molecular Landscape in Young-Onset Pancreatic Cancer</t>
+          <t>Liver-Directed Therapy Combined with Systemic Therapy: Current Status and Future Directions</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>JCO Precision Oncology</t>
+          <t>Seminars in Interventional Radiology</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Thieme Medical Publishers (Germany)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/po.23.00152</t>
+          <t>https://doi.org/10.1055/s-0043-1777711</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>hybrid</t>
+          <t>closed</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -7216,12 +7216,12 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37944072</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/38274222</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1200/po.23.00152</t>
+          <t>https://doi.org/10.1055/s-0043-1777711</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
